--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7AA864-1F40-2543-962C-5821FAED46D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0835D-CBE0-D34E-AE5F-1798840A9EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="4040" windowWidth="38900" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="9880" yWindow="500" windowWidth="38900" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -702,14 +702,12 @@
     <t>heat_tourism.jpg</t>
   </si>
   <si>
-    <t>12345 12345 12345 12345 12345 12345 12345 12345 12345 12345
-The coast road community is plagued by coastal over topping, causing disruption and flooding local shops and houses.
-The sea wall should minimise flooding risk to the local community, reduce flood clean-up costs and iIncrease investment into the area. 
-However, there will be substaintial isruption during building works and the wall will lessen the view of the bay.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Build a Miyawaki forest&lt;/b&gt;
 Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>The community around the coastal road has been plagued by frequent sea flooding events, causing a lot of disruption and costing a lot to clean up.
+Building a sea wall will stop these flooding events. It will be a messy and disruptive construction, but stopping the floods will help the area to stabilise and grow economically, even if it does ruin a good sea view.</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2392,7 +2390,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>148</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2891,7 +2889,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="12">
         <v>0</v>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0835D-CBE0-D34E-AE5F-1798840A9EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B9BA3-CDE1-0A40-98CC-2CBBA8C071DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="500" windowWidth="38900" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="4120" yWindow="2020" windowWidth="44720" windowHeight="25200" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1936,17 +1936,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -1968,9 +1968,6 @@
       </c>
       <c r="M5" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -1978,14 +1975,14 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="12">
         <v>2</v>
@@ -2012,31 +2009,31 @@
         <v>85</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -2052,6 +2049,9 @@
       </c>
       <c r="M7" s="8" t="s">
         <v>85</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2059,14 +2059,14 @@
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="12">
         <v>2</v>
@@ -2093,31 +2093,31 @@
         <v>85</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
       </c>
       <c r="H9" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>85</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2227,14 +2227,14 @@
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2269,23 +2269,23 @@
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="12">
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>85</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2311,14 +2311,14 @@
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="12">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>85</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2353,23 +2353,23 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="12">
         <v>0</v>
       </c>
       <c r="G15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>85</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2558,22 +2558,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
         <v>-1</v>
       </c>
       <c r="F20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="12">
         <v>2</v>
@@ -2585,19 +2585,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2605,10 +2599,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="12">
@@ -2618,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="12">
         <v>0</v>
@@ -2639,28 +2633,28 @@
         <v>85</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="12">
         <v>-1</v>
       </c>
       <c r="F22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="12">
         <v>0</v>
@@ -2669,13 +2663,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>208</v>
+        <v>82</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2799,21 +2799,21 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E26" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="12">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>82</v>
@@ -2835,9 +2835,6 @@
       </c>
       <c r="M26" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2845,25 +2842,25 @@
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E27" s="12">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
         <v>-1</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>3</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>82</v>
@@ -2878,24 +2875,24 @@
         <v>85</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="E28" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <v>0</v>
@@ -2904,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>82</v>
@@ -2917,6 +2914,9 @@
       </c>
       <c r="M28" s="8" t="s">
         <v>85</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2924,25 +2924,25 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
         <v>3</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>-1</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>82</v>
@@ -2957,7 +2957,7 @@
         <v>85</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332B9BA3-CDE1-0A40-98CC-2CBBA8C071DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3425E179-46E6-9341-A7F4-6F992413D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="2020" windowWidth="44720" windowHeight="25200" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="236">
   <si>
     <t>type</t>
   </si>
@@ -420,27 +420,12 @@
     <t xml:space="preserve">Municipality has been approached to approve a commercial super-farm on unused farmland. The farm will use modern methods to optimise crop production. </t>
   </si>
   <si>
-    <t>citizen MINKA (CS9)</t>
-  </si>
-  <si>
     <t>This is MINKA. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
     <t xml:space="preserve">Create a biodiversity digital twin </t>
   </si>
   <si>
-    <t>Add a digital twin to do digital twin stuff</t>
-  </si>
-  <si>
-    <t>Create a biodiversity knowledge base (CS9)</t>
-  </si>
-  <si>
-    <t>This sounds like MINKA, but is part of the Sardinia farmer dashboard - although that's ET rather than BD</t>
-  </si>
-  <si>
-    <t>Protect local biodiversity (CS9)</t>
-  </si>
-  <si>
     <t>This sounds like MINKA. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
@@ -471,15 +456,9 @@
     <t>Create a drought dashboard</t>
   </si>
   <si>
-    <t>As per CS5. Municipality will install a platform to monitor climate data in order to better understand drought events.</t>
-  </si>
-  <si>
     <t>Create a drought digital twin</t>
   </si>
   <si>
-    <t>Municipality will install a drought modelling digital twin to evaluate the likelihood and impact of drought scenarios, to better prepare for dry periods and long-term planning for drought resilience.</t>
-  </si>
-  <si>
     <t>Install smart water meters</t>
   </si>
   <si>
@@ -498,42 +477,18 @@
     <t>Approve out-of-town leisure resort</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by a retail company to develop a large out-of-town retail and leisure park on unused land. </t>
-  </si>
-  <si>
     <t>Approve nature-based flood protection</t>
   </si>
   <si>
-    <t>Municipality has been approached by a university to host a beaver land management project to reduce river flooding.</t>
-  </si>
-  <si>
     <t>Return seaside golf course to sea</t>
   </si>
   <si>
-    <t>The municipality will stop flood protecting the old sea-side golf course and return it to nature as a coastal wetland.</t>
-  </si>
-  <si>
-    <t>Create a flood support website (CS6)</t>
-  </si>
-  <si>
-    <t>As per CS6. Municipality will install a platform to support citizens with support and guidance for flooding.</t>
-  </si>
-  <si>
     <t>Create a flooding digital twin</t>
   </si>
   <si>
-    <t>As per CS6, CS8. Municipality will install a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, to better prepare for flooding and long-term planning for flood resilience.</t>
-  </si>
-  <si>
     <t>Engage in flood plain management</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached to develop flood plain management for the local river, removing existing developments and allowing land to flood and store flood water. </t>
-  </si>
-  <si>
-    <t>Approve installation of cool roofs (CS1)</t>
-  </si>
-  <si>
     <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.</t>
   </si>
   <si>
@@ -543,27 +498,15 @@
     <t>Install fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.</t>
   </si>
   <si>
-    <t>Approve installation of green walls (CS1)</t>
-  </si>
-  <si>
     <t>Green walls will lower urban temperatures making towns more habitable, increasing footfall and revenue.</t>
   </si>
   <si>
     <t>Create a heat knowledge base</t>
   </si>
   <si>
-    <t>Municipality will install a citizen knowledge base to provide helpful support for dealing with prolonged high temperatures.</t>
-  </si>
-  <si>
     <t>Create a heat digital twin</t>
   </si>
   <si>
-    <t>Municipality will install a climate modelling digital twin to evaluate the likelihood and impact of extreme temperature scenarios, to better prepare for very hot periods and long-term planning for heat resilience.</t>
-  </si>
-  <si>
-    <t>Construct a Miyawaki Forest (CS1)</t>
-  </si>
-  <si>
     <t>Embrace heat tourism</t>
   </si>
   <si>
@@ -624,21 +567,12 @@
     <t>smart_irrigation.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is a disaster! Residents of nearby cliff heights raise a long and costly legal objections as their district is being allowed to erode into the sea, resulting in the project being substantially delayed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortly after the project completes, there is a huge storm. Unlike previous storms, the coast road district doesn’t flood saving the council by not having to perform a large clean-up. </t>
-  </si>
-  <si>
     <t>sea_wall.jpg</t>
   </si>
   <si>
     <t>The complex is a titanic success, so much so that there’s gridlock in and around the town as everybody wants to go there making it impossible to travel anywhere.</t>
   </si>
   <si>
-    <t xml:space="preserve">The complex is a success, but heavy rains frequently flood the huge car parks </t>
-  </si>
-  <si>
     <t xml:space="preserve">The complex is a success with tenants that complement rather than compete with the town centre attractions. </t>
   </si>
   <si>
@@ -675,9 +609,6 @@
     <t xml:space="preserve">The project is a disaster! There was a major flood , and a much larger area of land was flooded. Farming land has been destroyed and polluted waters flow through the town. </t>
   </si>
   <si>
-    <t xml:space="preserve"> The project was a success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event</t>
-  </si>
-  <si>
     <t>flood_plain.jpg</t>
   </si>
   <si>
@@ -702,12 +633,138 @@
     <t>heat_tourism.jpg</t>
   </si>
   <si>
-    <t>&lt;b&gt;Build a Miyawaki forest&lt;/b&gt;
-Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
-  </si>
-  <si>
-    <t>The community around the coastal road has been plagued by frequent sea flooding events, causing a lot of disruption and costing a lot to clean up.
-Building a sea wall will stop these flooding events. It will be a messy and disruptive construction, but stopping the floods will help the area to stabilise and grow economically, even if it does ruin a good sea view.</t>
+    <t>The project completes on time and is warmly received despite ruining the view of the bay from the, now protected, coast road.​</t>
+  </si>
+  <si>
+    <t>The project completes slightly ahead of time, early enough to protect the coastal road from some unseasonally high tides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortly after the project completes, the town is buffeted a number of huge storms, the worst in living memory. Unlike previous storms, the coast road district doesn’t flood saving the council by not having to perform a large clean-up. </t>
+  </si>
+  <si>
+    <t>The community around the coastal road has been plagued by frequent sea floods, from high tides and onshore winds. This causes a great deal of disruption and leaves the area with costly flood damage and debris to clean up.
+Building a sea wall will stop these flooding events. It will be a messy and disruptive construction process, but stopping the floods will help the area to stabilise and grow economically, even if it does ruin a good sea view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a legal disaster area! Residents of nearby 'Cliff Heights' raise long and costly  objections as their district is being allowed to erode into the sea, resulting in the project being substantially delayed. </t>
+  </si>
+  <si>
+    <t>Municipality has been approached by a retail company to develop a large out-of-town retail and leisure park on unused land. 
+The proposal is positive​ly regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit hard with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The complex is a success, but heavy rains frequently flood the huge car parks and cause major traffic jams. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
+The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
+However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an invasive species, so may adversely impact the local flora and fawna. </t>
+  </si>
+  <si>
+    <t>The project appears to have been a success and stakeholders appear happy with the outcome. There appears to be less flooding after recent heavy storms and evidence of increased biodiversity .</t>
+  </si>
+  <si>
+    <t>The project appears to have been a success but key stakeholders seem unhappy with the outcomes and are currently blaming eachother for any issues that arise.</t>
+  </si>
+  <si>
+    <t>CS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a flood support website </t>
+  </si>
+  <si>
+    <t>CS8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the muncipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
+However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the munipality abandoning parts of the town to nature​. </t>
+  </si>
+  <si>
+    <t>The project was a great success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the ball is dropped when it comes to advertising  the site, with few residents event being aware that the site event exists. </t>
+  </si>
+  <si>
+    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through floods.
+Research has shown that people are more stressed about the idea of being in a flood, rather than actually experiencing a flood. A website that provides support and information will help residents to become more knowledgeable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a great success with residents regularly engaging and contributing with the website, to the point that it has become nationally recognised with other towns starting to adopt a similar approach. </t>
+  </si>
+  <si>
+    <t>The project starts with a lot of fanfare, but the actual development work is passed off to a low-cost bureau who have a lot of trouble interpreting the brief, producing a strange website that serves no-one.</t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website. After an unseasonal flood, many residents cite the website as being a great resource for helping them to come to terms with flooding issues.</t>
+  </si>
+  <si>
+    <t>Municipality will develop a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, to better prepare for flooding and long-term planning for flood resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate flood data and models, resulting in a useless tool.</t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, not least a predictive flood model for coastal road closures. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing flood protection activities to be far better targeted. Most residents don't notice, but the impact of flooding is decreasing year by year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Build a Miyawaki forest&lt;/b&gt;
+</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through heat waves and extreme heat.
+Research has shown that people often make bad choices about dealing with heat and will generally make bade decisions when dealing with heat stroke. A website that provides support and information will help residents to become more knowledgeable and make more appropriate decisions.</t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website.  Residents are better able to prepare for the long summer heatwave and pass invaluable knowledge to visitors to the town.</t>
+  </si>
+  <si>
+    <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate heat data and models, resulting in a useless tool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible scenarios. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, not least  the predictive medium-term heat wave model. Allowing residents to plan acccordinly. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is being able to better cope with long-term heat.</t>
+  </si>
+  <si>
+    <t>CS1</t>
+  </si>
+  <si>
+    <t>Construct a Miyawaki Forest</t>
+  </si>
+  <si>
+    <t>Approve installation of green walls</t>
+  </si>
+  <si>
+    <t>Approve installation of cool roofs</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to develop flood plain management for the local river, removing existing developments and allowing land to flood and store flood water. 
+This should reduce flooding to downstream neighbourhoods​ and better management of the flood plans will facilitate the creation of new recreational activities and attract wildlife.​
+However, the flood plains will not remove flooding, which is likely to cause issues with stakeholders if not communicated properly.</t>
+  </si>
+  <si>
+    <t>CS9</t>
+  </si>
+  <si>
+    <t>citizen MINKA</t>
+  </si>
+  <si>
+    <t>Protect local biodiversity</t>
+  </si>
+  <si>
+    <t>Create a biodiversity knowledge base</t>
   </si>
 </sst>
 </file>
@@ -1745,18 +1802,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="109" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="57.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10.83203125" style="12"/>
-    <col min="10" max="13" width="27" style="8" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="46.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="50.6640625" style="8" customWidth="1"/>
     <col min="14" max="14" width="38.83203125" style="8" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="8"/>
   </cols>
@@ -1805,7 +1865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1832,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1886,20 +1946,22 @@
         <v>85</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="E4" s="12">
         <v>0</v>
       </c>
@@ -1928,20 +1990,22 @@
         <v>85</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
@@ -1970,15 +2034,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="12">
@@ -2009,18 +2073,18 @@
         <v>85</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="12">
@@ -2051,20 +2115,22 @@
         <v>85</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="E8" s="12">
         <v>-1</v>
       </c>
@@ -2081,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2101,10 +2167,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2123,30 +2189,30 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2177,18 +2243,18 @@
         <v>85</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2207,30 +2273,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2261,18 +2327,18 @@
         <v>85</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2303,18 +2369,18 @@
         <v>85</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2333,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2353,10 +2419,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2375,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2395,10 +2461,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2417,30 +2483,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2459,30 +2525,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2501,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>80</v>
@@ -2521,10 +2587,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2543,30 +2609,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2585,26 +2651,34 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>208</v>
+        <v>186</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>209</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E21" s="12">
         <v>-1</v>
       </c>
@@ -2621,19 +2695,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2641,12 +2715,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="14"/>
+        <v>215</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E22" s="12">
         <v>-1</v>
       </c>
@@ -2663,32 +2739,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="E23" s="12">
         <v>0</v>
       </c>
@@ -2717,18 +2795,18 @@
         <v>85</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E24" s="12">
         <v>2</v>
@@ -2758,15 +2836,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>166</v>
+        <v>150</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2784,30 +2865,33 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2837,15 +2921,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2875,18 +2959,18 @@
         <v>85</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -2904,30 +2988,30 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -2945,19 +3029,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3425E179-46E6-9341-A7F4-6F992413D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ED70E0-29C4-554C-9637-0DDEC890215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -287,18 +287,6 @@
   </si>
   <si>
     <t>Being told what to do by adults who have messed the world up, which your generation now has to fix.</t>
-  </si>
-  <si>
-    <t>out-1. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>out-2. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>out-3. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>out-4. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
     <t>Opportunities to shop, socialize and be entertained.</t>
@@ -411,48 +399,21 @@
     <t>Approve a fish farm</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached to approve an offshore fish-farm. The farm will use modern methods to optimise fish yields. </t>
-  </si>
-  <si>
     <t>Approve a monofarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached to approve a commercial super-farm on unused farmland. The farm will use modern methods to optimise crop production. </t>
-  </si>
-  <si>
-    <t>This is MINKA. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create a biodiversity digital twin </t>
   </si>
   <si>
-    <t>This sounds like MINKA. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>protect local crops</t>
-  </si>
-  <si>
-    <t>This is the Sardinia durum wheat scheme. Should strengthen the local farming community and protect local crop types</t>
-  </si>
-  <si>
     <t>Approve a golf resort development</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by a premier resort developer to build a golf course resort on unused land. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Approve reservoir construction </t>
   </si>
   <si>
-    <t>Municipality has been approached by the local water company to build a large reservoir in a local valley.</t>
-  </si>
-  <si>
     <t>Approve water delivery service</t>
   </si>
   <si>
-    <t>The municipality is looking to ship in bottled water to ameliorate problems with drinking water supply during drought conditions.</t>
-  </si>
-  <si>
     <t>Create a drought dashboard</t>
   </si>
   <si>
@@ -462,15 +423,9 @@
     <t>Install smart water meters</t>
   </si>
   <si>
-    <t>The municipality is looking to install smart water meters, allowing customers to view consumption and highlight leaks within their houses.</t>
-  </si>
-  <si>
     <t>Smart irrigation programme</t>
   </si>
   <si>
-    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.</t>
-  </si>
-  <si>
     <t>Approve construction of a sea wall</t>
   </si>
   <si>
@@ -489,18 +444,9 @@
     <t>Engage in flood plain management</t>
   </si>
   <si>
-    <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.</t>
-  </si>
-  <si>
     <t>Approve installation of firebreaks</t>
   </si>
   <si>
-    <t>Install fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.</t>
-  </si>
-  <si>
-    <t>Green walls will lower urban temperatures making towns more habitable, increasing footfall and revenue.</t>
-  </si>
-  <si>
     <t>Create a heat knowledge base</t>
   </si>
   <si>
@@ -510,9 +456,6 @@
     <t>Embrace heat tourism</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality is looking to brand the town for 'extreme heat tourism', to attract northern European tourists looking for hot holiday action. </t>
-  </si>
-  <si>
     <t>Water has been greatly contaminated by the operation of the farm. As a result, the natural marine life has been endangered by the release of pathogens and parasites</t>
   </si>
   <si>
@@ -546,12 +489,6 @@
     <t>reservoir.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> The water quality did not pass the needed checks, and none of the water can be used. </t>
-  </si>
-  <si>
-    <t>Traffic in the town has become much worse due to transporting all the water. There are potholes everywhere and you have some very disgruntled locals.</t>
-  </si>
-  <si>
     <t>The effects of a hot and dry summer have been offset through the water. While not a perfect solution, it has had a positive effect.</t>
   </si>
   <si>
@@ -597,9 +534,6 @@
     <t>As the golf course returns to nature, the town is hit by a ‘once in a generation’ storm with extreme tides that rush over the course and undermine the mainline rail track, causing it to be out of use for six months.</t>
   </si>
   <si>
-    <t xml:space="preserve">Local golfers protest the decision by playing ‘urban golf’ in the town centre.  </t>
-  </si>
-  <si>
     <t>As the course returns to wetland, it becomes a popular destination for firstly, birds and then bird watchers.</t>
   </si>
   <si>
@@ -613,12 +547,6 @@
   </si>
   <si>
     <t>cool_roofs.jpg</t>
-  </si>
-  <si>
-    <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows and spills and created a right old stink in and around the buildings.</t>
-  </si>
-  <si>
-    <t>There has been an infestation of  aphids and spiders in one of the buildings and requires additional pest control.</t>
   </si>
   <si>
     <t xml:space="preserve">The project was a success, many people have commented on the reduction of noise and stress within the workplace. </t>
@@ -649,24 +577,12 @@
     <t xml:space="preserve">The project is a legal disaster area! Residents of nearby 'Cliff Heights' raise long and costly  objections as their district is being allowed to erode into the sea, resulting in the project being substantially delayed. </t>
   </si>
   <si>
-    <t>Municipality has been approached by a retail company to develop a large out-of-town retail and leisure park on unused land. 
-The proposal is positive​ly regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit hard with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The complex is a success, but heavy rains frequently flood the huge car parks and cause major traffic jams. </t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
-The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
-However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an invasive species, so may adversely impact the local flora and fawna. </t>
-  </si>
-  <si>
     <t>The project appears to have been a success and stakeholders appear happy with the outcome. There appears to be less flooding after recent heavy storms and evidence of increased biodiversity .</t>
   </si>
   <si>
-    <t>The project appears to have been a success but key stakeholders seem unhappy with the outcomes and are currently blaming eachother for any issues that arise.</t>
-  </si>
-  <si>
     <t>CS6</t>
   </si>
   <si>
@@ -674,10 +590,6 @@
   </si>
   <si>
     <t>CS8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the muncipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
-However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the munipality abandoning parts of the town to nature​. </t>
   </si>
   <si>
     <t>The project was a great success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event</t>
@@ -715,10 +627,6 @@
     <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Build a Miyawaki forest&lt;/b&gt;
-</t>
-  </si>
-  <si>
     <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through heat waves and extreme heat.
 Research has shown that people often make bad choices about dealing with heat and will generally make bade decisions when dealing with heat stroke. A website that provides support and information will help residents to become more knowledgeable and make more appropriate decisions.</t>
   </si>
@@ -730,9 +638,6 @@
   </si>
   <si>
     <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible scenarios. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
-    <t>The digital twin works well and is providing some good insights, not least  the predictive medium-term heat wave model. Allowing residents to plan acccordinly. The municipality is happy and would like to develop it further.</t>
   </si>
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is being able to better cope with long-term heat.</t>
@@ -758,13 +663,282 @@
     <t>CS9</t>
   </si>
   <si>
-    <t>citizen MINKA</t>
-  </si>
-  <si>
     <t>Protect local biodiversity</t>
   </si>
   <si>
     <t>Create a biodiversity knowledge base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a disaster,  the water did not pass quality assurance and con not be consumed.  Instead the costly water is just being used for non-human use. </t>
+  </si>
+  <si>
+    <t>Despite a hot and dry summer, there are adequate water reserves and tourism benefits.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to install green walls on buildings in the town. The process should reduce local temperatures, making the buildings, and moreover, the streets around them cooler during the day, allowing residents to make more of the town's shops during the day.
+However, the walls require a water supply to keep them green, otherwise, the plants will die creating bio and fire hazards.</t>
+  </si>
+  <si>
+    <t>The green walls have been retrofitted and there has been no major setbacks. However, there has been an infestation of  aphids and spiders in one of the buildings which requires additional pest control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The course is returned to nature, but local golfers protest the decision by playing ‘urban golf’ in the town centre. </t>
+  </si>
+  <si>
+    <t>Municipality is looking to make the most of its annual heatwave and brand the town for 'extreme heat tourism', to attract northern European tourists looking for hot holiday action. 
+This should create a tourist boom and help the local economy by creating jobs to service tourist needs. However, supporting tourists may adversely affect the town by choosing developments that meet tourist, rather than local needs.</t>
+  </si>
+  <si>
+    <t>The town has become a tourist destination for booze-filled stag and hen parties, making the town a right mess and stretching the emergency services to deal with all the issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town has become a very popular summer heat destination, with tourists coming from around the world. This has created a boom for the locals, with many now working in tourism. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced flows downstream have affected local fish population. The local angling community are unhappy </t>
+  </si>
+  <si>
+    <t>The dam of the reservoir was made cheaply. In a heavy rainfall event the dam breaks, causing the water in the reservoir to flow downstream. Much of the town has been washed away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a serve drought in the summer. Luckily because of the reservoir there is enough water for the township. </t>
+  </si>
+  <si>
+    <t>There was a serve drought in the summer. However, with the winter rains captured in the reservoir, there is easily enough water for all.</t>
+  </si>
+  <si>
+    <t>The municipality is looking to install smart domestic water meters, allowing customers to view consumption and highlight leaks within their houses.
+The meters allow customers to view their water consumption on a minute by minute basis, easily seeing the impact of showers, watering the gardening and running the washing machine and dishwasher.
+However, customers often lose interest in their consumption once the novelty of a smart meter has worn off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! The smart metering app is buggy and often shows consumption that is unrelated to actual customer activity, resulting in customer having no confidence in the data. </t>
+  </si>
+  <si>
+    <t>Residents love interacting with their smart water app and  consumption is at an all-time low. As a result, there is greatly decreased demand on the water distribution network allowing the water company to spend more time and resources addressing leakage.</t>
+  </si>
+  <si>
+    <t>The smart water meters have been accepted by residents and water consumption is starting to show a reduction as enthusiastic residents look to minimise their consumption.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The smart irrigation platform is very buggy and is over watering many crops to the point of causing local floods.</t>
+  </si>
+  <si>
+    <t>Smart irrigation systems have been installed, with mixed results. Some farmers are reporting success, but many are reluctant to use them as they feel that they have a much better understanding of crop requirements.</t>
+  </si>
+  <si>
+    <t>The smart irrigation systems are working well, with most farmers reporting both significant reductions in water requirements but also increases in yield. In some cases, marginal land is being returned to use.</t>
+  </si>
+  <si>
+    <t>The smart irrigation system seem to be working alright, though there have been a few teething issues. Most farmers are reporting that the system is working well for them, though a few have run into issues with over and under watering.</t>
+  </si>
+  <si>
+    <t>The crop chosen have proved extremely invasive and has spread to other farms and to peoples' gardens,  outcompeting native species and reducing local biodiversity.</t>
+  </si>
+  <si>
+    <t>The farm is producing an expected return and has created local jobs. The farm operators are careful to consider local biodiversity issues.</t>
+  </si>
+  <si>
+    <t>Although fast growing, the tree species selected for the forest were highly susceptible to a local pest, resulting in many of the trees dying and becoming fire risks.</t>
+  </si>
+  <si>
+    <t>The forests are a great success, providing local cool spaces in the middle of the town and providing opportunities for heat stress residents to 'touch grass' and engage with nature.</t>
+  </si>
+  <si>
+    <t>The forests have been fairly successful and provide interesting talking points for the townspeople, though there are some concerns that the forests are becoming home to rats and feral pets.</t>
+  </si>
+  <si>
+    <t>The forests are a limited success as the  many of the trees selected seem to die quite quickly, leading to a patchy feel to the forest. Some of the forests have been more resilient and the locals appreciate being close to nature.</t>
+  </si>
+  <si>
+    <t>The fire breaks have been a massive failure after a scrubland fire overcame the breaks and raged out of control until it burnt itself out.</t>
+  </si>
+  <si>
+    <t>High winds and a prolonged drought have hit the area, leading to wild fires breaking out across the region. However, the breaks are able to contain the fire to relatively small regions,  greatly reducing damage. </t>
+  </si>
+  <si>
+    <t>The fire breaks have proved to be very capable in limiting the spread of wildfire. However, they've had the added bonus of becoming popular tourist hiking routes.</t>
+  </si>
+  <si>
+    <t>The fire breaks are a success, but there is a lot of backlash from locals and tourists that the breaks have ruined the natural beaty of the hinterland.</t>
+  </si>
+  <si>
+    <t>Municipality will develop a biodiversity modelling digital twin to evaluate the likelihood and impact of activities that may be adverse to biodiversity, to build biodiversity resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate biodiversity data and models, resulting in a useless tool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting extinction events. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good biodiversity strategy insights. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>Citizen biodiversity</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The app is developed by a consultancy with little understanding or interest in the project and product a buggy mess that nobody wants to use.</t>
+  </si>
+  <si>
+    <t>The project is a great success, with residents becoming keen citizen scientists monitoring the wildlife they see around them. The data created by the project provides local biodiversity researchers with clear insights into the state of the environment allowing meaningful interventions to be followed.</t>
+  </si>
+  <si>
+    <t>The project is a success, with the app being popular for school projects and wildlife enthusiasts. Although the app doesn't get broad appeal, it has a large enough user base to provide a lot of value.</t>
+  </si>
+  <si>
+    <t>Legally protect local crops</t>
+  </si>
+  <si>
+    <t>The project is a success, with crop protection in place, the farmers can operate securely knowing that their crop comes from this town.</t>
+  </si>
+  <si>
+    <t>The project is a limited success. Whilst the crop has been protected, companies in other regions have been quick to relabel their ingredients and food products with new names. For many consumers, the difference are neither here nor there.</t>
+  </si>
+  <si>
+    <t>image9.jpeg</t>
+  </si>
+  <si>
+    <t>image114.jpeg</t>
+  </si>
+  <si>
+    <t>The project is a disaster! An initial breeding programme to strengthen the wolf community led to wolves growing out of control and decimated local pets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst the wildlife park has been able to breed endangered local animals, returning  them to their environments always proved difficult, leading to accusations that the park staff were incompetent. </t>
+  </si>
+  <si>
+    <t>The project is a success, with the wildlife park receiving awards for its programmes. There's interest from the community, but it's felt that people would rather enjoy their days out.</t>
+  </si>
+  <si>
+    <t>Theres's a small, but hardcore set of citizen users recording everything they can. This provides researchers with useful insights, but the project really needs more scale.</t>
+  </si>
+  <si>
+    <t>The high resort fees tend to greatly limit the number of guests at any time and most just come to play golf and move on. There's not a lot of trickle down to the town, and if you didn't know the course was there, you probably wouldn't know about it.</t>
+  </si>
+  <si>
+    <t>The course is a success, though the high resort fees tend to keep the resort ticking over, giving a relaxed feel. The course has been good for the town, with jobs to support the course and the customers.</t>
+  </si>
+  <si>
+    <t>Golf tourists come from far and wide to play, and when they aren't playing a lot of them are visiting the town and spending money on good days and nights out.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to approve an offshore fish-farm. The farm will use modern methods to optimise fish yields. 
+The farm will create local jobs in growing and processing the fish and will make good quality fish available   in the region and nationally.
+However, fish farms are often criticised for creating monocultures, both for the fish and other water users as the farms are somewhat secretive about their methods of fish husbandry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached to approve a commercial super-farm on unused farmland. The farm will use modern methods to optimise crop production.
+The farm will grow high yield, resistant crops and will create local jobs to support its operations. However, the high use of pesticides and high water consumption are likely to have negative impacts on biodiversity and water availability.  </t>
+  </si>
+  <si>
+    <t>The farm is producing bumper crop yields, but requires considerably more water than anticipated,  resulting in the local water company suggesting that people only shower once a week to save water.</t>
+  </si>
+  <si>
+    <t>The farm is producing bumper crop yields and is managing to deliver them in harmony with the environment. To conserve water, the farm has developed a sophisticated irrigation system that has gained wide praise.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to approve citizen science project to engage with members of the public to observe and record local fauna and flora using a mobile app.
+Recording the environment will help researchers to understand the current state of the environment and capture its changes over time, to determine positive and negative biodiversity changes.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to approve the development of a wildlife park that specialises in protecting and supporting local flora and fauna.
+The park will develop a breeding programme for rare fauna and look to release animals back into the local community to maintain viable stocks.</t>
+  </si>
+  <si>
+    <t>The project is a great success, with rare native species being successfully reintroduced back into their natural habitats. The wildlife park visitor centres prove very popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about biodiversity conservation.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached a local farming group to legally enshrine their locally produced crops using appropriate EU legislation. This would stop similar crops grown in other regions from using this regions' name.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The lawyers engaged by the municipality didn't understand the legal complexities of trademarking and lost their case, severely undermining the financial security of the farmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a great success, with the local crop being protected, farmers have built a heritage industry around their crop and the foodstuffs that can be made from it. This has made the town an attraction for tourists and gourmands looking for the 'real thing'. </t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Most residents don't notice, but biodiversity resilience is growing year on year.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached by the local water company to build a large reservoir in a local valley. The reservoir will capture the heavy winter rains, creating a more permeant water supply and reducing water scarcity in the summer months.
+However, flooding the valley will impact local wildlife and stop fish migrations through the river that the reservoir is on.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached by a premier resort developer to build a golf course resort on unused land. 
+The course will attract wealthy golf enthusiasts and will spread wealth around the local area, with jobs and commercial opportunities for locals.
+There is some concern that the course will require significant water resources to keep the course green and that the wealth of the members may stay in the gated community of the resort.</t>
+  </si>
+  <si>
+    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.
+The town has a large market garden industry which often places great demand on the water distribution network, with farmers preferring to water more than less, even though over watering can adversely effect crops. Using computers to access crop need should lead to less water consumption and allow currently marginal land to be used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
+The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
+However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an invasive species, so may adversely impact the local flora and fauna. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the municipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
+However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the municipality abandoning parts of the town to nature​. </t>
+  </si>
+  <si>
+    <t>The project appears to have been a success but key stakeholders seem unhappy with the outcomes and are currently blaming each other for any issues that arise.</t>
+  </si>
+  <si>
+    <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.
+The project is generally a low-cost and non-invasive method of reducing urban heat. However, it only really benefits areas with long periods of very hot weather and is counter-productive in areas where solar panels have been installed.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The painting contractors have ended up painting everything and destroying much of the towns domestic solar panel installations.</t>
+  </si>
+  <si>
+    <t>The roof painting phase of the project has been completed, but the expected hot weather and associated heat wave is noticeable by its absence. The townspeople reckon the municipality is just wasting money on vanity projects.</t>
+  </si>
+  <si>
+    <t>The roofs have been painted just in time for the summer heat wave and are having the desired effect. Rooms in painted houses feel cooler and the surrounding streets are far more pleasant to be in.</t>
+  </si>
+  <si>
+    <t>The roofs have been painted and there's a record breaking heatwave in the region. Unlike last year, it feels cooler in the streets, even though the weather is warmer. Residents are relived and thankful that their summers are liveable again.</t>
+  </si>
+  <si>
+    <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows, making the buildings unpleasant to be around.</t>
+  </si>
+  <si>
+    <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry and not really addressing the issue.</t>
+  </si>
+  <si>
+    <t>The town has gained a reputation for being a great destination for discerning tourists throughout the year and it turns out that as much as tourists like the heat, they also like cool environments making the town liveable for all.</t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, not least  the predictive medium-term heat wave model. Allowing residents to plan accordingly. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
+The proposal is positive​ly regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality is looking to ship in bottled water from another country in order to ameliorate problems with drinking water supply during drought conditions.
+This will give the town a dependable supply of drinking water during the summer and it's much cheaper than updating the towns water collection and distribution network. 
+However, the constant deliveries of bottled water will create traffic congestion. There's also the public relations issue that the municipality isn't prepared to solve its hard problems and just buys in solutions. </t>
+  </si>
+  <si>
+    <t>Plans have been submitted to Install fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.
+The breaks should contain fires and stop them spreading so widely. This should reduce reliance on the emergency services and reduce biodiversity loss.
+However,  there are costs associated with installing and maintaining the breaks and the biodiversity impact of initially removing trees and scrubland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached to install some small, but densely populated fast growing forests.
+The tennis court sized forests can be planted almost anywhere, given their size, and provide the benefits of a forest right in the heart of the town, creating urban spaces that help mitigate the impacts of heat stress and connect people with nature.
+However, the desire for fast growing forests can lead to the selection of tree species that are susceptible to disease and pests.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people only shower once a week to save water. </t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>30</v>
@@ -1349,7 +1523,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>57</v>
@@ -1476,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1508,49 +1682,49 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1558,49 +1732,49 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1608,49 +1782,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1658,49 +1832,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1708,49 +1882,49 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1778,18 +1952,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1802,8 +1976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1832,7 +2007,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>15</v>
@@ -1865,15 +2040,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1892,30 +2067,30 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1934,33 +2109,33 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>124</v>
+        <v>259</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -1978,36 +2153,36 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
         <v>2</v>
@@ -2022,29 +2197,34 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>262</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E6" s="12">
         <v>2</v>
       </c>
@@ -2061,81 +2241,81 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>183</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E7" s="12">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="12">
         <v>-1</v>
       </c>
       <c r="F8" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -2147,114 +2327,114 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="12">
         <v>-1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
         <v>3</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
       <c r="I9" s="12">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="12">
         <v>-1</v>
       </c>
       <c r="G10" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2273,30 +2453,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2315,30 +2495,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2357,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2377,10 +2557,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2399,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2419,10 +2599,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2441,19 +2621,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2461,10 +2641,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2483,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2503,10 +2683,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2525,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,10 +2725,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2567,16 +2747,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>80</v>
@@ -2587,10 +2767,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2609,19 +2789,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2629,10 +2809,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2651,33 +2831,33 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2695,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2715,13 +2895,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2739,33 +2919,33 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2783,33 +2963,33 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="E24" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="12">
         <v>1</v>
@@ -2824,30 +3004,33 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2865,71 +3048,71 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2944,22 +3127,22 @@
         <v>0</v>
       </c>
       <c r="I27" s="12">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -2967,10 +3150,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -2988,19 +3171,19 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -3008,10 +3191,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3029,19 +3212,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ED70E0-29C4-554C-9637-0DDEC890215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7B7EF-A83D-C14F-B275-05D2C9DF7AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="245">
   <si>
     <t>type</t>
   </si>
@@ -107,189 +107,46 @@
     <t>desc</t>
   </si>
   <si>
-    <t>pos-1</t>
-  </si>
-  <si>
-    <t>pos-2</t>
-  </si>
-  <si>
-    <t>pos-3</t>
-  </si>
-  <si>
-    <t>neg-1</t>
-  </si>
-  <si>
-    <t>neg-2</t>
-  </si>
-  <si>
-    <t>neg-3</t>
-  </si>
-  <si>
     <t>img</t>
   </si>
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>The idea of having money and freedom but are unsure how to get it.</t>
-  </si>
-  <si>
-    <t>Surfing and Swim swimming (anything outdoorsy)  -  cowabunga baby!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not having to work</t>
-  </si>
-  <si>
-    <t>Old people, they think they own the world.</t>
-  </si>
-  <si>
-    <t>Not being able to surf because of the sewage polluting the water!</t>
-  </si>
-  <si>
     <t>student.jpg</t>
   </si>
   <si>
     <t>Single worker</t>
   </si>
   <si>
-    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.</t>
-  </si>
-  <si>
-    <t>Having a stable job with a decent wage and room to grow.</t>
-  </si>
-  <si>
-    <t>Having nice things to do when I’m not at work.</t>
-  </si>
-  <si>
-    <t>To be able to get on, buy a nicer flat with my partner and start putting down some roots.</t>
-  </si>
-  <si>
-    <t>Lack of opportunities</t>
-  </si>
-  <si>
-    <t>Struggling to make ends meet</t>
-  </si>
-  <si>
-    <t>The state of the local environment, it all needs a good clean up.</t>
-  </si>
-  <si>
     <t>single_worker.jpg</t>
   </si>
   <si>
     <t>Family</t>
   </si>
   <si>
-    <t>You moved here when you got married to a local. It’s a nice place, but it’s not really home. However, you’ve got a good job and are putting down roots.</t>
-  </si>
-  <si>
-    <t>My partner, they make it all worthwhile.</t>
-  </si>
-  <si>
-    <t>Work opportunities, I couldn’t do this work at home.</t>
-  </si>
-  <si>
-    <t>Travel, there’s lots of nice places to go to from here.</t>
-  </si>
-  <si>
-    <t>The food and drink isn’t the same as at home.</t>
-  </si>
-  <si>
-    <t>Dealing with abuse, I’m from the other side of the channel ‘mate’.</t>
-  </si>
-  <si>
-    <t>The bureaucracy of living in a foreign country.</t>
-  </si>
-  <si>
     <t>family.jpg</t>
   </si>
   <si>
     <t>Retiree</t>
   </si>
   <si>
-    <t>You've retired to the town and want to enjoy yourself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activities that meet your needs as an active member of society.
-</t>
-  </si>
-  <si>
-    <t>Easy transport links so you can get around and do the above.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change that adversely impacts you.
-</t>
-  </si>
-  <si>
-    <t>Young people whinging about having it tough as you had it tough when you were young, and it didn’t affect you much.</t>
-  </si>
-  <si>
-    <t>Taxation as you’ve paid tax all your life and should be done with it now.</t>
-  </si>
-  <si>
     <t>retiree.jpg</t>
   </si>
   <si>
     <t>Business owner</t>
   </si>
   <si>
-    <t>You are a local shop keeper. You’ve managed your shop for years. It keeps you busy enough and financially secure, but not wealthy.</t>
-  </si>
-  <si>
-    <t>Nice customers that make good purchases</t>
-  </si>
-  <si>
-    <t>Tourists and holidaymakers that are keen to buy from me.</t>
-  </si>
-  <si>
-    <t>Being apart of your local community</t>
-  </si>
-  <si>
-    <t>The mall and out of town shopping taking away customers.</t>
-  </si>
-  <si>
-    <t>High parking charges stopping people coming to town.</t>
-  </si>
-  <si>
-    <t>The council changing things</t>
-  </si>
-  <si>
     <t>business_owner.jpg</t>
   </si>
   <si>
     <t>Politician</t>
   </si>
   <si>
-    <t>You are a local politician who got into politics to address injustice both locally and in the wider community.</t>
-  </si>
-  <si>
-    <t>Policies that help all people</t>
-  </si>
-  <si>
-    <t>Fair and just outcomes</t>
-  </si>
-  <si>
-    <t>Karma</t>
-  </si>
-  <si>
-    <t>Organisations and individuals that operate outside the law and outside the spirit of the law</t>
-  </si>
-  <si>
-    <t>Short-termism</t>
-  </si>
-  <si>
-    <t>Injustice</t>
-  </si>
-  <si>
     <t>politician.jpg</t>
   </si>
   <si>
     <t>beavers.jpg</t>
-  </si>
-  <si>
-    <t>Being told what to do by adults who have messed the world up, which your generation now has to fix.</t>
-  </si>
-  <si>
-    <t>Opportunities to shop, socialize and be entertained.</t>
   </si>
   <si>
     <t>Economic Event</t>
@@ -370,11 +227,6 @@
     <t xml:space="preserve">event desc-3. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
   </si>
   <si>
-    <t>You're a student and you're living and studying in the town. The local college is great, but you really like all the outdoor ammenities.
-You're not sure about the future, you like the town but you need to have somewhere where you can get a good job and get on.
-12345 12345 12345 12345 12345 12345 12345 12345</t>
-  </si>
-  <si>
     <t>Minor Event</t>
   </si>
   <si>
@@ -939,6 +791,36 @@
   </si>
   <si>
     <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people only shower once a week to save water. </t>
+  </si>
+  <si>
+    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
+You like having a stable job with a decent wage and room to grow,​ having nice things to do when you're not at work,  being able to get on, buy a nice flat with your partner and start putting down some roots.​
+You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and  you seem to pay a lot of tax but not see much for it, given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
+  </si>
+  <si>
+    <t>You’re a young parent with some rug rats. Life has new levels of complexity and you’re still trying to find your feet.​
+You like things you can do for and with your family, knowing that your kids have a future in the town​, and being able to unwind with your partner at the end of the day.​
+You hate people and policies that hate people with children​,  excessive government intervention​, and pollution that may impact your family.</t>
+  </si>
+  <si>
+    <t>You are a retired worker. You’ve spent your lifetime working hard and, at your age, you are entitled to everything you deserve.​
+You like activities that meet your needs as an active member of society,  opportunities to shop, socialize and be entertained, and easy transport links so you can get around without any stress​
+You hate change that adversely impacts you.​ Young people whinging about having it tough as you had it tough when you were young, and it didn’t affect you much.​ Taxation as you’ve paid tax all your life and should be done with it now.​</t>
+  </si>
+  <si>
+    <t>You are a local business owner. You’ve managed your shop for years. It keeps you busy enough and financially secure, but not wealthy.​
+You like nice customers that make good purchases​, tourists and holidaymakers that are keen to buy at your shop, and being apart of the local community​
+You hate the mall and out of town shopping taking away customers,​ high parking charges stopping people coming to town.​ The municipality needlessly changing things, you like things the way they are and want to keep them that way.</t>
+  </si>
+  <si>
+    <t>You are a local politician who got into politics to address injustice both locally and in the wider community.
+You like being a force for good in the local community, being an agent of change, even if the change is often what people need rather than want, and keeping big businesses and the powerful in check.
+You hate people and organisations that don't understand that we are just tenants, not the long term owners of the town. Carpet baggers trying to make a short term profit on the backs of hard working people.</t>
+  </si>
+  <si>
+    <t>You're a student, living and studying in the town. The local college is great, but you really like all the outdoor amenities in the town.
+You like the idea of having money and freedom but are unsure how to get it.​ Getting outdoors and doing nice things with your friends and fam. Not having to work that much at the moment.
+You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse.  You worry deeply about your future and the state of the world.</t>
   </si>
 </sst>
 </file>
@@ -1379,21 +1261,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" customWidth="1"/>
-    <col min="4" max="9" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1403,200 +1284,74 @@
       <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="C7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1682,49 +1437,49 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1732,49 +1487,49 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1782,49 +1537,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1832,49 +1587,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1882,49 +1637,49 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1952,18 +1707,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
@@ -2007,7 +1762,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>15</v>
@@ -2037,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2045,10 +1800,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -2067,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2087,10 +1842,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -2109,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2129,13 +1884,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2153,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2173,13 +1928,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2197,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2217,13 +1972,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2241,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2261,13 +2016,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2285,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2305,10 +2060,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2327,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2347,10 +2102,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2369,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2389,10 +2144,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2411,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2431,10 +2186,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2453,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2473,10 +2228,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2495,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2515,10 +2270,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2537,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2557,10 +2312,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2579,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2599,10 +2354,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2621,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2641,10 +2396,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2663,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2683,10 +2438,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2705,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2725,10 +2480,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2747,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2767,10 +2522,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2789,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="L19" s="8" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2809,10 +2564,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2831,19 +2586,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2851,13 +2606,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2875,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2895,13 +2650,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2919,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2939,13 +2694,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2963,19 +2718,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2983,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -3004,19 +2759,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3024,13 +2779,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -3048,19 +2803,19 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -3068,13 +2823,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -3092,16 +2847,16 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3109,10 +2864,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -3130,19 +2885,19 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3150,10 +2905,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -3171,30 +2926,30 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3212,19 +2967,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7B7EF-A83D-C14F-B275-05D2C9DF7AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A9F1EE-6D8F-A648-824D-4EEED5C8EC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="45260" windowHeight="28300" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="260">
   <si>
     <t>type</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>outcome-3</t>
-  </si>
-  <si>
-    <t>outcome-4</t>
   </si>
   <si>
     <t>EP</t>
@@ -215,18 +212,6 @@
     <t xml:space="preserve">overkill. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
   </si>
   <si>
-    <t xml:space="preserve">extreme overkill.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">event desc-1. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">event desc-2. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">event desc-3. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
     <t>Minor Event</t>
   </si>
   <si>
@@ -821,6 +806,73 @@
     <t>You're a student, living and studying in the town. The local college is great, but you really like all the outdoor amenities in the town.
 You like the idea of having money and freedom but are unsure how to get it.​ Getting outdoors and doing nice things with your friends and fam. Not having to work that much at the moment.
 You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse.  You worry deeply about your future and the state of the world.</t>
+  </si>
+  <si>
+    <t>10,000 year flooding event</t>
+  </si>
+  <si>
+    <t>unseasonal rains</t>
+  </si>
+  <si>
+    <t>battered by multiple winter storms</t>
+  </si>
+  <si>
+    <t>lower rainfall than normal</t>
+  </si>
+  <si>
+    <t>multi-year low rainfall</t>
+  </si>
+  <si>
+    <t>in the middle</t>
+  </si>
+  <si>
+    <t>a heat wave</t>
+  </si>
+  <si>
+    <t>extremely long heat waves</t>
+  </si>
+  <si>
+    <t>unseaonsal heatwave</t>
+  </si>
+  <si>
+    <t>bee pesticide</t>
+  </si>
+  <si>
+    <t>Tanker casues long-term coastal poluution</t>
+  </si>
+  <si>
+    <t>river pollution event</t>
+  </si>
+  <si>
+    <t>Economic events typically occur when there is a loss of confidence in the economy. This can be seen as a general lack of investment, leading company closures,  job losses, and a general reduction in spending . 
+Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
+  </si>
+  <si>
+    <t>A large local employer closes down. All of a sudden, many people are out of work and companies that rely on the closed company have a reduction in their turnover.</t>
+  </si>
+  <si>
+    <t>Bad weather impacts the summer holiday season. This results in many local businesses being impacted by a downturn in their trade.
+Some businesses will be able to 'weather the storm', but for smaller businesses that rely on the summer season, a washout will mean the end of their business.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the economic event in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>A global credit crunch., economic decisions in a country far, far, away impact the town's economy by removing money from the economy.
+ This results in some internation companies closing their operations in the town, increased costs for goods and services and a reluctance by people to spend their limited cash.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's likely that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their economic resilience planning.</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,76 +1334,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1362,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,11 +1430,11 @@
     <col min="8" max="10" width="23.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="6" customWidth="1"/>
     <col min="12" max="12" width="31.83203125" customWidth="1"/>
-    <col min="13" max="16" width="23.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="13" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1428,258 +1480,240 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1707,18 +1741,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1759,25 +1793,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>10</v>
@@ -1792,18 +1826,18 @@
         <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1822,30 +1856,30 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1864,33 +1898,33 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -1908,33 +1942,33 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -1952,33 +1986,33 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -1996,33 +2030,33 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2040,30 +2074,30 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2082,30 +2116,30 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2124,30 +2158,30 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2166,30 +2200,30 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2208,30 +2242,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2250,30 +2284,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2292,30 +2326,30 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2334,30 +2368,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2376,30 +2410,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2418,30 +2452,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2460,30 +2494,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2502,30 +2536,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2544,30 +2578,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2586,33 +2620,33 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2630,33 +2664,33 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2674,33 +2708,33 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2718,30 +2752,30 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2759,33 +2793,33 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2803,33 +2837,33 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2847,27 +2881,27 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2885,30 +2919,30 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -2926,30 +2960,30 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -2967,19 +3001,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A9F1EE-6D8F-A648-824D-4EEED5C8EC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AEA45-2C6E-9246-8862-5D7B3B0BF2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="45260" windowHeight="28300" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="23160" yWindow="2860" windowWidth="25600" windowHeight="23560" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="275">
   <si>
     <t>type</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>EP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
   </si>
   <si>
     <t>BP</t>
@@ -200,18 +197,6 @@
     <t>desc-1</t>
   </si>
   <si>
-    <t xml:space="preserve">severely under-prepared. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">under-prepared. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fitting. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">overkill. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
     <t>Minor Event</t>
   </si>
   <si>
@@ -808,71 +793,155 @@
 You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse.  You worry deeply about your future and the state of the world.</t>
   </si>
   <si>
-    <t>10,000 year flooding event</t>
-  </si>
-  <si>
-    <t>unseasonal rains</t>
-  </si>
-  <si>
-    <t>battered by multiple winter storms</t>
-  </si>
-  <si>
-    <t>lower rainfall than normal</t>
-  </si>
-  <si>
-    <t>multi-year low rainfall</t>
-  </si>
-  <si>
-    <t>in the middle</t>
-  </si>
-  <si>
-    <t>a heat wave</t>
-  </si>
-  <si>
-    <t>extremely long heat waves</t>
-  </si>
-  <si>
-    <t>unseaonsal heatwave</t>
-  </si>
-  <si>
-    <t>bee pesticide</t>
-  </si>
-  <si>
-    <t>Tanker casues long-term coastal poluution</t>
-  </si>
-  <si>
-    <t>river pollution event</t>
-  </si>
-  <si>
-    <t>Economic events typically occur when there is a loss of confidence in the economy. This can be seen as a general lack of investment, leading company closures,  job losses, and a general reduction in spending . 
-Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
-  </si>
-  <si>
     <t>A large local employer closes down. All of a sudden, many people are out of work and companies that rely on the closed company have a reduction in their turnover.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the economic event in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the flood in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the drought  in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>The town appears to be in a climate change where it's just so hot all the time, resulting in the town becoming drier and browner.
+Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the event in the town, which is a huge relief for all.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the event in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town normally has great summers, but this summer was a lot hotter than normal, making it hard to enjoy the weather as it was just too hot. </t>
+  </si>
+  <si>
+    <t>A local diary farm has a storage failure, releasing milk into the local river, killing all the fish. Whilst the leak is repaired quickly and the dead fish removed, it takes considerable time for the river to return to pristine condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood events occur when there is water in places where water shouldn't be, and can occur from excessive rainfall, storm surges, or man-made flooding. Flooding causes damage in two main ways, firstly from water damage and then secondly from the debris and waste left by receding water
+ </t>
+  </si>
+  <si>
+    <t>It's been raining more than expected for the time of year and the ground has become sodden, resulting in localised flooding. This impacts local people and businesses and takes resources to clean up once the flood water recedes.</t>
+  </si>
+  <si>
+    <t>The town has a drier winter than expected, resulting in the main supply reservoirs being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
+  </si>
+  <si>
+    <t>The town appears to be in a climate change where it no longer rains like it used to, resulting in the town becoming drier and browner, and making water a scares resource.
+Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity events occur when the fauna and or flora of an environment is threatened by external sources. Typically, this may occur as a side effect of industrial pollution, or the introduction of non indigenous flora and fauna. </t>
+  </si>
+  <si>
+    <t>For the last year or so the town has been experiencing lower rainfall than typical. It was hoped that last year's low rainfall was a blip, but it's being repeated this year.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>The town's hot summer has now extended into a hot autumn and a hot winter. Whilst tourists are enjoying the winter sun, residents have had their fill.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to flooding. As the town floods, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their flood resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the event, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their actions.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the heat wave,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their actions.</t>
+  </si>
+  <si>
+    <t>The town has been clearly impacted by the drought, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their drought planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the drought,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their drought planning.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the flood, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their flood planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the flood,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their flood planning.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the event, with much work to do to recover the town's fauna and flora, and the people and businesses that are involved.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their biodiversity resilience.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the town's fauna and flora and the people and businesses that are involved.
+People feel that the municipality has 'got it right' with their  biodiversity resilience.</t>
+  </si>
+  <si>
+    <t>The town has been battered by multiple winter storms, with each storm causing flooding that the town is struggling to recover from before being hit by the next one.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>A local farm uses a pesticide that destroys the local bee population. Without bees, local crops and plants are not pollinated, resulting in a commercial and environmental collapse.
+Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
+  </si>
+  <si>
+    <t>An oil tanker runs aground up the coast, spilling a million barrels of oil, wiping out much of the bird life and destroying the local beach tourism industry for a couple of seasons.
+Residents and businesses are starting to get nervous about the future.</t>
   </si>
   <si>
     <t>Bad weather impacts the summer holiday season. This results in many local businesses being impacted by a downturn in their trade.
 Some businesses will be able to 'weather the storm', but for smaller businesses that rely on the summer season, a washout will mean the end of their business.</t>
   </si>
   <si>
-    <t>There appears to be little impact of the economic event in the town, which is a huge relief for the local businesses and towns people.
-However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
-  </si>
-  <si>
-    <t>A global credit crunch., economic decisions in a country far, far, away impact the town's economy by removing money from the economy.
- This results in some internation companies closing their operations in the town, increased costs for goods and services and a reluctance by people to spend their limited cash.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's likely that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their economic resilience planning.</t>
+    <t>A global credit crunch, economic decisions in a country far, far, away impact the town's economy by removing money from the economy. This results in some international companies closing their operations in the town, increased costs for goods and services and a reluctance by people to spend their limited cash.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to fluctuations in its water supply. As the town's water reserves dwindle, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their drought planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>Economic events occur when there is a loss of confidence in the economy. This can be seen as a reduction in investment, leading company closures,  job losses, and a general reduction in consumer spending . 
+Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
+  </si>
+  <si>
+    <t>The region has been absolutely battered by a once in a lifetime storm that has dumped unprecedented amounts of rain in the region, causing huge amount of damage. Rebuilding will take time and effort.
+Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
+  </si>
+  <si>
+    <t>Drought events occur when provisions for water consumption are not met. Typically, this can be a lack of rain, either locally or remotely, as a lack of rain in to the ground water and rivers that feed the town. Droughts can be short term, as a lack of rainfall, or longer term in the retreat of water bodies.</t>
+  </si>
+  <si>
+    <t>Heat waves occur when there is a prolonged period of local excess heat as a sequence of unusually hot days and nights. Heat waves amplify many risks, such as health related or economic risks, including increased human mortality, drought and water quality, wildfire and smoke, power shortages and agricultural losses.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
   </si>
 </sst>
 </file>
@@ -1334,76 +1403,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1416,8 +1485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,12 +1497,13 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
     <col min="5" max="7" width="22.5" style="6" customWidth="1"/>
     <col min="8" max="10" width="23.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="6" customWidth="1"/>
     <col min="12" max="12" width="31.83203125" customWidth="1"/>
-    <col min="13" max="15" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="14" max="15" width="23.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1457,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1481,239 +1554,239 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1741,18 +1814,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1793,25 +1866,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>10</v>
@@ -1826,18 +1899,18 @@
         <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1856,30 +1929,30 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1898,33 +1971,33 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -1942,33 +2015,33 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -1986,33 +2059,33 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2030,33 +2103,33 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2074,30 +2147,30 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2116,30 +2189,30 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2158,30 +2231,30 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2200,30 +2273,30 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2242,30 +2315,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2284,30 +2357,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2326,30 +2399,30 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2368,30 +2441,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2410,30 +2483,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2452,30 +2525,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2494,30 +2567,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2536,30 +2609,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2578,30 +2651,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2620,33 +2693,33 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2664,33 +2737,33 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2708,33 +2781,33 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2752,30 +2825,30 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2793,33 +2866,33 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2837,33 +2910,33 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2881,27 +2954,27 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2919,30 +2992,30 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -2960,30 +3033,30 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3001,19 +3074,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81AEA45-2C6E-9246-8862-5D7B3B0BF2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E075D1C-E78B-2849-8004-779148A333B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="2860" windowWidth="25600" windowHeight="23560" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="24820" yWindow="2100" windowWidth="25600" windowHeight="23560" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="276">
   <si>
     <t>type</t>
   </si>
@@ -317,9 +317,6 @@
     <t xml:space="preserve">Despite a very hot and dry summer, there’s more than enough water bringing in lots of tourists from other drier areas. </t>
   </si>
   <si>
-    <t>water_delivery_service.png</t>
-  </si>
-  <si>
     <t>smart_meters.jpg</t>
   </si>
   <si>
@@ -617,12 +614,6 @@
   </si>
   <si>
     <t>The project is a limited success. Whilst the crop has been protected, companies in other regions have been quick to relabel their ingredients and food products with new names. For many consumers, the difference are neither here nor there.</t>
-  </si>
-  <si>
-    <t>image9.jpeg</t>
-  </si>
-  <si>
-    <t>image114.jpeg</t>
   </si>
   <si>
     <t>The project is a disaster! An initial breeding programme to strengthen the wolf community led to wolves growing out of control and decimated local pets.</t>
@@ -942,6 +933,18 @@
   <si>
     <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
 People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>firebreaks.jpeg</t>
+  </si>
+  <si>
+    <t>water_delivery_service.jpg</t>
+  </si>
+  <si>
+    <t>protect_biodiversity.jpg</t>
+  </si>
+  <si>
+    <t>miyawaki.png</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>22</v>
@@ -1425,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -1436,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
@@ -1447,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -1458,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -1469,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>32</v>
@@ -1485,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1565,7 +1568,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -1577,28 +1580,28 @@
         <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1612,7 +1615,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>51</v>
@@ -1624,28 +1627,28 @@
         <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1659,7 +1662,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
@@ -1671,28 +1674,28 @@
         <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1706,7 +1709,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>51</v>
@@ -1718,28 +1721,28 @@
         <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1753,7 +1756,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>51</v>
@@ -1765,28 +1768,28 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1838,9 +1841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="137" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1910,7 +1913,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1952,7 +1955,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1971,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="M3" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>83</v>
@@ -1991,13 +1994,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2015,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>84</v>
@@ -2035,13 +2038,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2059,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2079,13 +2082,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2103,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>86</v>
@@ -2123,13 +2126,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2147,16 +2150,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>84</v>
@@ -2170,7 +2173,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2189,16 +2192,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>85</v>
@@ -2212,7 +2215,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2231,16 +2234,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>88</v>
@@ -2254,7 +2257,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2273,16 +2276,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>87</v>
@@ -2296,7 +2299,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2315,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>89</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>91</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2338,7 +2341,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2357,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2380,7 +2383,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2399,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2422,7 +2425,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2441,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="M14" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>84</v>
@@ -2464,7 +2467,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2483,16 +2486,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>85</v>
@@ -2506,7 +2509,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2525,19 +2528,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2548,7 +2551,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2567,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,7 +2593,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2609,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>33</v>
@@ -2632,7 +2635,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2651,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>87</v>
@@ -2674,7 +2677,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2693,19 +2696,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2713,13 +2716,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2737,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="M21" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>84</v>
@@ -2760,10 +2763,10 @@
         <v>72</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2781,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>85</v>
@@ -2801,13 +2804,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2825,19 +2828,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="N23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2848,7 +2851,7 @@
         <v>74</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2866,19 +2869,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="N24" s="8" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2886,13 +2889,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2910,19 +2913,19 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2930,13 +2933,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2954,16 +2957,19 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>170</v>
+      <c r="N26" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2974,7 +2980,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2992,19 +2998,19 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="M27" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3015,7 +3021,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -3033,16 +3039,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>84</v>
@@ -3056,7 +3062,7 @@
         <v>76</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3074,16 +3080,16 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>85</v>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E075D1C-E78B-2849-8004-779148A333B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E0455-1B3D-4445-8005-F2FC1F84A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24820" yWindow="2100" windowWidth="25600" windowHeight="23560" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="15940" yWindow="2100" windowWidth="34480" windowHeight="23560" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -1842,8 +1842,8 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E0455-1B3D-4445-8005-F2FC1F84A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E039D-4787-D140-BEEB-6930C8778596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15940" yWindow="2100" windowWidth="34480" windowHeight="23560" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>Smart irrigation programme</t>
   </si>
   <si>
-    <t>Approve construction of a sea wall</t>
-  </si>
-  <si>
     <t>Approve out-of-town leisure resort</t>
   </si>
   <si>
@@ -945,6 +942,9 @@
   </si>
   <si>
     <t>miyawaki.png</t>
+  </si>
+  <si>
+    <t>Approve sea wall construction</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>22</v>
@@ -1428,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -1439,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>28</v>
@@ -1461,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -1472,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>32</v>
@@ -1568,7 +1568,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -1580,28 +1580,28 @@
         <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>51</v>
@@ -1627,28 +1627,28 @@
         <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
@@ -1674,28 +1674,28 @@
         <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>51</v>
@@ -1721,28 +1721,28 @@
         <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1756,7 +1756,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>51</v>
@@ -1768,28 +1768,28 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1841,9 +1841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1913,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -1994,13 +1994,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2018,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2038,13 +2038,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2062,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2082,13 +2082,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2106,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2126,13 +2126,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2150,19 +2150,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2173,7 +2173,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2192,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2215,7 +2215,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2234,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2257,7 +2257,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2276,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2299,7 +2299,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="N11" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2360,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2383,7 +2383,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="M14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2486,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="N15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2506,10 +2506,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2528,19 +2528,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2548,10 +2548,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2570,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,10 +2590,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>33</v>
@@ -2632,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2654,19 +2654,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="N19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2674,10 +2674,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2696,19 +2696,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2716,13 +2716,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="M21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2760,13 +2760,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2784,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="N22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2804,13 +2804,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2828,19 +2828,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="N23" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2848,10 +2848,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2869,19 +2869,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="N24" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2889,13 +2889,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2913,19 +2913,19 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2933,13 +2933,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="N26" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2977,10 +2977,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -2998,19 +2998,19 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="N27" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3018,10 +3018,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -3039,19 +3039,19 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -3059,10 +3059,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3080,19 +3080,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="N29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E039D-4787-D140-BEEB-6930C8778596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E33F7D4-11E2-714C-8848-2906FD65928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15940" yWindow="2100" windowWidth="34480" windowHeight="23560" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
@@ -941,10 +941,10 @@
     <t>protect_biodiversity.jpg</t>
   </si>
   <si>
-    <t>miyawaki.png</t>
-  </si>
-  <si>
     <t>Approve sea wall construction</t>
+  </si>
+  <si>
+    <t>miyawaki.jpg</t>
   </si>
 </sst>
 </file>
@@ -1841,9 +1841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="137" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>114</v>
@@ -2969,7 +2969,7 @@
         <v>168</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E33F7D4-11E2-714C-8848-2906FD65928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD64AD-1228-2B4C-BBA0-61EEB647BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15940" yWindow="2100" windowWidth="34480" windowHeight="23560" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="text" sheetId="4" r:id="rId3"/>
     <sheet name="interventions" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="285">
   <si>
     <t>type</t>
   </si>
@@ -945,6 +945,37 @@
   </si>
   <si>
     <t>miyawaki.jpg</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through drought event.
+Research has shown that people are more stressed about the idea of being in a drought, rather than actually experiencing a drought. A website that provides support and information will help residents to become more knowledgeable.</t>
+  </si>
+  <si>
+    <t>Municipality will develop a drought modelling digital twin to evaluate the likelihood and impact of potential drought events, to better prepare for droughts and long-term planning for drought resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>Municipality will develop a heat wave modelling digital twin to evaluate the likelihood and impact of potential heat waves, to better prepare for heat waves and long-term planning for heat resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them support biodiverrsity.
+Research has shown that people often make poor biodiversity decisions due to a lack of knowledge and suitable support. A website that provides support and information will help residents to become more knowledgeable.</t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website. After an expected biodiversity event, many residents cite the website as being a great resource for helping them to come to terms with  issues.</t>
+  </si>
+  <si>
+    <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate drought data and models, resulting in a useless tool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, not least a model for forecasting water scarcity. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing conservative water consumption activities to be far better targeted. Most residents don't notice, but the impact of droughts is decreasing year by year.</t>
   </si>
 </sst>
 </file>
@@ -1842,8 +1873,8 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2160,7 @@
         <v>144</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>142</v>
@@ -2156,7 +2187,7 @@
         <v>122</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>124</v>
@@ -2425,7 +2456,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2459,7 +2490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2486,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>84</v>
@@ -3062,7 +3093,7 @@
         <v>75</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD64AD-1228-2B4C-BBA0-61EEB647BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F269F-62E4-2240-996B-C53C9F3779D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="15040" yWindow="8260" windowWidth="35780" windowHeight="17500" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>student.jpg</t>
-  </si>
-  <si>
     <t>Single worker</t>
   </si>
   <si>
@@ -976,6 +973,9 @@
   </si>
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing conservative water consumption activities to be far better targeted. Most residents don't notice, but the impact of droughts is decreasing year by year.</t>
+  </si>
+  <si>
+    <t>student2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,65 +1448,65 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1593,46 +1593,46 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1640,46 +1640,46 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1687,46 +1687,46 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1734,46 +1734,46 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1781,46 +1781,46 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="M6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1848,18 +1848,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1872,9 +1872,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1903,7 +1905,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>14</v>
@@ -1941,10 +1943,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1963,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -1983,10 +1985,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2025,13 +2027,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2049,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2069,13 +2071,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2093,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2113,13 +2115,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2137,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2157,13 +2159,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2181,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2201,10 +2203,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2223,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2243,10 +2245,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2265,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2285,10 +2287,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2307,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2327,10 +2329,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2349,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="N11" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2369,10 +2371,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2391,19 +2393,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2411,10 +2413,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2433,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2453,10 +2455,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2475,19 +2477,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="M14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2495,10 +2497,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2517,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="N15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2537,10 +2539,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2559,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2579,10 +2581,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2601,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,10 +2623,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2643,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="N18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2663,10 +2665,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2685,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="N19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2705,10 +2707,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2727,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2747,13 +2749,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2771,19 +2773,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="M21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2791,13 +2793,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2815,19 +2817,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="N22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2835,13 +2837,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2859,19 +2861,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="N23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2879,10 +2881,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2900,19 +2902,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="N24" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2920,13 +2922,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2944,19 +2946,19 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2964,13 +2966,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2988,19 +2990,19 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="N26" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3008,10 +3010,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -3029,19 +3031,19 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="N27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3049,10 +3051,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -3070,19 +3072,19 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -3090,10 +3092,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3111,19 +3113,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="N29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F269F-62E4-2240-996B-C53C9F3779D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0BE4BC-B062-8B44-B855-E589CD537DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="8260" windowWidth="35780" windowHeight="17500" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="8520" yWindow="3340" windowWidth="42300" windowHeight="22420" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -411,10 +411,6 @@
     <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the ball is dropped when it comes to advertising  the site, with few residents event being aware that the site event exists. </t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through floods.
-Research has shown that people are more stressed about the idea of being in a flood, rather than actually experiencing a flood. A website that provides support and information will help residents to become more knowledgeable.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project is a great success with residents regularly engaging and contributing with the website, to the point that it has become nationally recognised with other towns starting to adopt a similar approach. </t>
   </si>
   <si>
@@ -424,10 +420,6 @@
     <t>The project is delivered and residents are aware and using the website. After an unseasonal flood, many residents cite the website as being a great resource for helping them to come to terms with flooding issues.</t>
   </si>
   <si>
-    <t>Municipality will develop a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, to better prepare for flooding and long-term planning for flood resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
-  </si>
-  <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate flood data and models, resulting in a useless tool.</t>
   </si>
   <si>
@@ -440,10 +432,6 @@
     <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through heat waves and extreme heat.
-Research has shown that people often make bad choices about dealing with heat and will generally make bade decisions when dealing with heat stroke. A website that provides support and information will help residents to become more knowledgeable and make more appropriate decisions.</t>
-  </si>
-  <si>
     <t>The project is delivered and residents are aware and using the website.  Residents are better able to prepare for the long summer heatwave and pass invaluable knowledge to visitors to the town.</t>
   </si>
   <si>
@@ -468,11 +456,6 @@
     <t>Approve installation of cool roofs</t>
   </si>
   <si>
-    <t>Municipality has been approached to develop flood plain management for the local river, removing existing developments and allowing land to flood and store flood water. 
-This should reduce flooding to downstream neighbourhoods​ and better management of the flood plans will facilitate the creation of new recreational activities and attract wildlife.​
-However, the flood plains will not remove flooding, which is likely to cause issues with stakeholders if not communicated properly.</t>
-  </si>
-  <si>
     <t>CS9</t>
   </si>
   <si>
@@ -488,18 +471,10 @@
     <t>Despite a hot and dry summer, there are adequate water reserves and tourism benefits.</t>
   </si>
   <si>
-    <t>Municipality has been approached to install green walls on buildings in the town. The process should reduce local temperatures, making the buildings, and moreover, the streets around them cooler during the day, allowing residents to make more of the town's shops during the day.
-However, the walls require a water supply to keep them green, otherwise, the plants will die creating bio and fire hazards.</t>
-  </si>
-  <si>
     <t>The green walls have been retrofitted and there has been no major setbacks. However, there has been an infestation of  aphids and spiders in one of the buildings which requires additional pest control.</t>
   </si>
   <si>
     <t xml:space="preserve">The course is returned to nature, but local golfers protest the decision by playing ‘urban golf’ in the town centre. </t>
-  </si>
-  <si>
-    <t>Municipality is looking to make the most of its annual heatwave and brand the town for 'extreme heat tourism', to attract northern European tourists looking for hot holiday action. 
-This should create a tourist boom and help the local economy by creating jobs to service tourist needs. However, supporting tourists may adversely affect the town by choosing developments that meet tourist, rather than local needs.</t>
   </si>
   <si>
     <t>The town has become a tourist destination for booze-filled stag and hen parties, making the town a right mess and stretching the emergency services to deal with all the issues.</t>
@@ -576,10 +551,6 @@
     <t>The fire breaks are a success, but there is a lot of backlash from locals and tourists that the breaks have ruined the natural beaty of the hinterland.</t>
   </si>
   <si>
-    <t>Municipality will develop a biodiversity modelling digital twin to evaluate the likelihood and impact of activities that may be adverse to biodiversity, to build biodiversity resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
-  </si>
-  <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate biodiversity data and models, resulting in a useless tool.</t>
   </si>
   <si>
@@ -646,336 +617,364 @@
     <t>The farm is producing bumper crop yields and is managing to deliver them in harmony with the environment. To conserve water, the farm has developed a sophisticated irrigation system that has gained wide praise.</t>
   </si>
   <si>
-    <t>Municipality has been approached to approve citizen science project to engage with members of the public to observe and record local fauna and flora using a mobile app.
+    <t>The project is a great success, with rare native species being successfully reintroduced back into their natural habitats. The wildlife park visitor centres prove very popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about biodiversity conservation.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The lawyers engaged by the municipality didn't understand the legal complexities of trademarking and lost their case, severely undermining the financial security of the farmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a great success, with the local crop being protected, farmers have built a heritage industry around their crop and the foodstuffs that can be made from it. This has made the town an attraction for tourists and gourmands looking for the 'real thing'. </t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Most residents don't notice, but biodiversity resilience is growing year on year.</t>
+  </si>
+  <si>
+    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.
+The town has a large market garden industry which often places great demand on the water distribution network, with farmers preferring to water more than less, even though over watering can adversely effect crops. Using computers to access crop need should lead to less water consumption and allow currently marginal land to be used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the municipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
+However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the municipality abandoning parts of the town to nature​. </t>
+  </si>
+  <si>
+    <t>The project appears to have been a success but key stakeholders seem unhappy with the outcomes and are currently blaming each other for any issues that arise.</t>
+  </si>
+  <si>
+    <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.
+The project is generally a low-cost and non-invasive method of reducing urban heat. However, it only really benefits areas with long periods of very hot weather and is counter-productive in areas where solar panels have been installed.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The painting contractors have ended up painting everything and destroying much of the towns domestic solar panel installations.</t>
+  </si>
+  <si>
+    <t>The roof painting phase of the project has been completed, but the expected hot weather and associated heat wave is noticeable by its absence. The townspeople reckon the municipality is just wasting money on vanity projects.</t>
+  </si>
+  <si>
+    <t>The roofs have been painted just in time for the summer heat wave and are having the desired effect. Rooms in painted houses feel cooler and the surrounding streets are far more pleasant to be in.</t>
+  </si>
+  <si>
+    <t>The roofs have been painted and there's a record breaking heatwave in the region. Unlike last year, it feels cooler in the streets, even though the weather is warmer. Residents are relived and thankful that their summers are liveable again.</t>
+  </si>
+  <si>
+    <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows, making the buildings unpleasant to be around.</t>
+  </si>
+  <si>
+    <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry and not really addressing the issue.</t>
+  </si>
+  <si>
+    <t>The town has gained a reputation for being a great destination for discerning tourists throughout the year and it turns out that as much as tourists like the heat, they also like cool environments making the town liveable for all.</t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, not least  the predictive medium-term heat wave model. Allowing residents to plan accordingly. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people only shower once a week to save water. </t>
+  </si>
+  <si>
+    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
+You like having a stable job with a decent wage and room to grow,​ having nice things to do when you're not at work,  being able to get on, buy a nice flat with your partner and start putting down some roots.​
+You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and  you seem to pay a lot of tax but not see much for it, given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
+  </si>
+  <si>
+    <t>You’re a young parent with some rug rats. Life has new levels of complexity and you’re still trying to find your feet.​
+You like things you can do for and with your family, knowing that your kids have a future in the town​, and being able to unwind with your partner at the end of the day.​
+You hate people and policies that hate people with children​,  excessive government intervention​, and pollution that may impact your family.</t>
+  </si>
+  <si>
+    <t>You are a retired worker. You’ve spent your lifetime working hard and, at your age, you are entitled to everything you deserve.​
+You like activities that meet your needs as an active member of society,  opportunities to shop, socialize and be entertained, and easy transport links so you can get around without any stress​
+You hate change that adversely impacts you.​ Young people whinging about having it tough as you had it tough when you were young, and it didn’t affect you much.​ Taxation as you’ve paid tax all your life and should be done with it now.​</t>
+  </si>
+  <si>
+    <t>You are a local business owner. You’ve managed your shop for years. It keeps you busy enough and financially secure, but not wealthy.​
+You like nice customers that make good purchases​, tourists and holidaymakers that are keen to buy at your shop, and being apart of the local community​
+You hate the mall and out of town shopping taking away customers,​ high parking charges stopping people coming to town.​ The municipality needlessly changing things, you like things the way they are and want to keep them that way.</t>
+  </si>
+  <si>
+    <t>You are a local politician who got into politics to address injustice both locally and in the wider community.
+You like being a force for good in the local community, being an agent of change, even if the change is often what people need rather than want, and keeping big businesses and the powerful in check.
+You hate people and organisations that don't understand that we are just tenants, not the long term owners of the town. Carpet baggers trying to make a short term profit on the backs of hard working people.</t>
+  </si>
+  <si>
+    <t>You're a student, living and studying in the town. The local college is great, but you really like all the outdoor amenities in the town.
+You like the idea of having money and freedom but are unsure how to get it.​ Getting outdoors and doing nice things with your friends and fam. Not having to work that much at the moment.
+You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse.  You worry deeply about your future and the state of the world.</t>
+  </si>
+  <si>
+    <t>A large local employer closes down. All of a sudden, many people are out of work and companies that rely on the closed company have a reduction in their turnover.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the economic event in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the flood in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the drought  in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>The town appears to be in a climate change where it's just so hot all the time, resulting in the town becoming drier and browner.
+Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the event in the town, which is a huge relief for all.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t>There appears to be little impact of the event in the town, which is a huge relief for the local businesses and towns people.
+However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town normally has great summers, but this summer was a lot hotter than normal, making it hard to enjoy the weather as it was just too hot. </t>
+  </si>
+  <si>
+    <t>A local diary farm has a storage failure, releasing milk into the local river, killing all the fish. Whilst the leak is repaired quickly and the dead fish removed, it takes considerable time for the river to return to pristine condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood events occur when there is water in places where water shouldn't be, and can occur from excessive rainfall, storm surges, or man-made flooding. Flooding causes damage in two main ways, firstly from water damage and then secondly from the debris and waste left by receding water
+ </t>
+  </si>
+  <si>
+    <t>It's been raining more than expected for the time of year and the ground has become sodden, resulting in localised flooding. This impacts local people and businesses and takes resources to clean up once the flood water recedes.</t>
+  </si>
+  <si>
+    <t>The town has a drier winter than expected, resulting in the main supply reservoirs being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
+  </si>
+  <si>
+    <t>The town appears to be in a climate change where it no longer rains like it used to, resulting in the town becoming drier and browner, and making water a scares resource.
+Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity events occur when the fauna and or flora of an environment is threatened by external sources. Typically, this may occur as a side effect of industrial pollution, or the introduction of non indigenous flora and fauna. </t>
+  </si>
+  <si>
+    <t>For the last year or so the town has been experiencing lower rainfall than typical. It was hoped that last year's low rainfall was a blip, but it's being repeated this year.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>The town's hot summer has now extended into a hot autumn and a hot winter. Whilst tourists are enjoying the winter sun, residents have had their fill.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to flooding. As the town floods, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their flood resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the event, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their actions.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the heat wave,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their actions.</t>
+  </si>
+  <si>
+    <t>The town has been clearly impacted by the drought, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their drought planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the drought,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their drought planning.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the flood, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their flood planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the flood,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
+People feel that the municipality has 'got it right' with their flood planning.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the event, with much work to do to recover the town's fauna and flora, and the people and businesses that are involved.
+People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their biodiversity resilience.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the town's fauna and flora and the people and businesses that are involved.
+People feel that the municipality has 'got it right' with their  biodiversity resilience.</t>
+  </si>
+  <si>
+    <t>The town has been battered by multiple winter storms, with each storm causing flooding that the town is struggling to recover from before being hit by the next one.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>A local farm uses a pesticide that destroys the local bee population. Without bees, local crops and plants are not pollinated, resulting in a commercial and environmental collapse.
+Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
+  </si>
+  <si>
+    <t>An oil tanker runs aground up the coast, spilling a million barrels of oil, wiping out much of the bird life and destroying the local beach tourism industry for a couple of seasons.
+Residents and businesses are starting to get nervous about the future.</t>
+  </si>
+  <si>
+    <t>Bad weather impacts the summer holiday season. This results in many local businesses being impacted by a downturn in their trade.
+Some businesses will be able to 'weather the storm', but for smaller businesses that rely on the summer season, a washout will mean the end of their business.</t>
+  </si>
+  <si>
+    <t>A global credit crunch, economic decisions in a country far, far, away impact the town's economy by removing money from the economy. This results in some international companies closing their operations in the town, increased costs for goods and services and a reluctance by people to spend their limited cash.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to fluctuations in its water supply. As the town's water reserves dwindle, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their drought planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>Economic events occur when there is a loss of confidence in the economy. This can be seen as a reduction in investment, leading company closures,  job losses, and a general reduction in consumer spending . 
+Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
+  </si>
+  <si>
+    <t>The region has been absolutely battered by a once in a lifetime storm that has dumped unprecedented amounts of rain in the region, causing huge amount of damage. Rebuilding will take time and effort.
+Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
+  </si>
+  <si>
+    <t>Drought events occur when provisions for water consumption are not met. Typically, this can be a lack of rain, either locally or remotely, as a lack of rain in to the ground water and rivers that feed the town. Droughts can be short term, as a lack of rainfall, or longer term in the retreat of water bodies.</t>
+  </si>
+  <si>
+    <t>Heat waves occur when there is a prolonged period of local excess heat as a sequence of unusually hot days and nights. Heat waves amplify many risks, such as health related or economic risks, including increased human mortality, drought and water quality, wildfire and smoke, power shortages and agricultural losses.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
+People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>firebreaks.jpeg</t>
+  </si>
+  <si>
+    <t>water_delivery_service.jpg</t>
+  </si>
+  <si>
+    <t>protect_biodiversity.jpg</t>
+  </si>
+  <si>
+    <t>Approve sea wall construction</t>
+  </si>
+  <si>
+    <t>miyawaki.jpg</t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website. After an expected biodiversity event, many residents cite the website as being a great resource for helping them to come to terms with  issues.</t>
+  </si>
+  <si>
+    <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate drought data and models, resulting in a useless tool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t>The digital twin works well and is providing some good insights, not least a model for forecasting water scarcity. The municipality is happy and would like to develop it further.</t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing conservative water consumption activities to be far better targeted. Most residents don't notice, but the impact of droughts is decreasing year by year.</t>
+  </si>
+  <si>
+    <t>student2.jpg</t>
+  </si>
+  <si>
+    <t>The municipality has been approached to approve citizen science project to engage with members of the public to observe and record local fauna and flora using a mobile app.
 Recording the environment will help researchers to understand the current state of the environment and capture its changes over time, to determine positive and negative biodiversity changes.</t>
   </si>
   <si>
-    <t>Municipality has been approached to approve the development of a wildlife park that specialises in protecting and supporting local flora and fauna.
+    <t>The municipality has been approached to approve the development of a wildlife park that specialises in protecting and supporting local flora and fauna.
 The park will develop a breeding programme for rare fauna and look to release animals back into the local community to maintain viable stocks.</t>
   </si>
   <si>
-    <t>The project is a great success, with rare native species being successfully reintroduced back into their natural habitats. The wildlife park visitor centres prove very popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about biodiversity conservation.</t>
-  </si>
-  <si>
-    <t>Municipality has been approached a local farming group to legally enshrine their locally produced crops using appropriate EU legislation. This would stop similar crops grown in other regions from using this regions' name.</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The lawyers engaged by the municipality didn't understand the legal complexities of trademarking and lost their case, severely undermining the financial security of the farmers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project is a great success, with the local crop being protected, farmers have built a heritage industry around their crop and the foodstuffs that can be made from it. This has made the town an attraction for tourists and gourmands looking for the 'real thing'. </t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Most residents don't notice, but biodiversity resilience is growing year on year.</t>
-  </si>
-  <si>
-    <t>Municipality has been approached by the local water company to build a large reservoir in a local valley. The reservoir will capture the heavy winter rains, creating a more permeant water supply and reducing water scarcity in the summer months.
+    <t>The municipality has been approached a local farming group to legally enshrine their locally produced crops using appropriate EU legislation. This would stop similar crops grown in other regions from using this regions' name.</t>
+  </si>
+  <si>
+    <t>The municipality will develop a biodiversity modelling digital twin to evaluate the likelihood and impact of activities that may be adverse to biodiversity, to build biodiversity resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached by the local water company to build a large reservoir in a local valley. The reservoir will capture the heavy winter rains, creating a more permeant water supply and reducing water scarcity in the summer months.
 However, flooding the valley will impact local wildlife and stop fish migrations through the river that the reservoir is on.</t>
   </si>
   <si>
-    <t>Municipality has been approached by a premier resort developer to build a golf course resort on unused land. 
+    <t>The municipality has been approached by a premier resort developer to build a golf course resort on unused land. 
 The course will attract wealthy golf enthusiasts and will spread wealth around the local area, with jobs and commercial opportunities for locals.
 There is some concern that the course will require significant water resources to keep the course green and that the wealth of the members may stay in the gated community of the resort.</t>
   </si>
   <si>
-    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.
-The town has a large market garden industry which often places great demand on the water distribution network, with farmers preferring to water more than less, even though over watering can adversely effect crops. Using computers to access crop need should lead to less water consumption and allow currently marginal land to be used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipality has been approached by local university to host a beaver land management project to reduce river flooding.
-The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
-However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that beavers are an invasive species, so may adversely impact the local flora and fauna. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the municipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
-However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the municipality abandoning parts of the town to nature​. </t>
-  </si>
-  <si>
-    <t>The project appears to have been a success but key stakeholders seem unhappy with the outcomes and are currently blaming each other for any issues that arise.</t>
-  </si>
-  <si>
-    <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.
-The project is generally a low-cost and non-invasive method of reducing urban heat. However, it only really benefits areas with long periods of very hot weather and is counter-productive in areas where solar panels have been installed.</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The painting contractors have ended up painting everything and destroying much of the towns domestic solar panel installations.</t>
-  </si>
-  <si>
-    <t>The roof painting phase of the project has been completed, but the expected hot weather and associated heat wave is noticeable by its absence. The townspeople reckon the municipality is just wasting money on vanity projects.</t>
-  </si>
-  <si>
-    <t>The roofs have been painted just in time for the summer heat wave and are having the desired effect. Rooms in painted houses feel cooler and the surrounding streets are far more pleasant to be in.</t>
-  </si>
-  <si>
-    <t>The roofs have been painted and there's a record breaking heatwave in the region. Unlike last year, it feels cooler in the streets, even though the weather is warmer. Residents are relived and thankful that their summers are liveable again.</t>
-  </si>
-  <si>
-    <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows, making the buildings unpleasant to be around.</t>
-  </si>
-  <si>
-    <t>The town has developed its reputation as a winter sun destination, but the summer heatwaves make it too hot for many tourists, resulting in a highly seasonal industry and not really addressing the issue.</t>
-  </si>
-  <si>
-    <t>The town has gained a reputation for being a great destination for discerning tourists throughout the year and it turns out that as much as tourists like the heat, they also like cool environments making the town liveable for all.</t>
-  </si>
-  <si>
-    <t>The digital twin works well and is providing some good insights, not least  the predictive medium-term heat wave model. Allowing residents to plan accordingly. The municipality is happy and would like to develop it further.</t>
-  </si>
-  <si>
-    <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
-  </si>
-  <si>
-    <t>Municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
+    <t>The municipality will develop a drought modelling digital twin to evaluate the likelihood and impact of potential drought events, to better prepare for droughts and long-term planning for drought resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
 The proposal is positive​ly regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
   </si>
   <si>
-    <t xml:space="preserve">The municipality is looking to ship in bottled water from another country in order to ameliorate problems with drinking water supply during drought conditions.
-This will give the town a dependable supply of drinking water during the summer and it's much cheaper than updating the towns water collection and distribution network. 
-However, the constant deliveries of bottled water will create traffic congestion. There's also the public relations issue that the municipality isn't prepared to solve its hard problems and just buys in solutions. </t>
-  </si>
-  <si>
-    <t>Plans have been submitted to Install fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.
-The breaks should contain fires and stop them spreading so widely. This should reduce reliance on the emergency services and reduce biodiversity loss.
-However,  there are costs associated with installing and maintaining the breaks and the biodiversity impact of initially removing trees and scrubland.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipality has been approached to install some small, but densely populated fast growing forests.
+    <t>The municipality has been approached to develop a community website that will provide residents with useful information and support to help them through floods.
+Research has shown that people are more stressed about the idea of being in a flood, rather than actually experiencing a flood. A website that provides support and information will help residents to become more knowledgeable.</t>
+  </si>
+  <si>
+    <t>The municipality will develop a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, to better prepare for flooding and long-term planning for flood resilience.
+The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached to install green walls on buildings in the town. The process should reduce local temperatures, making the buildings, and moreover, the streets around them cooler during the day, allowing residents to make more of the town's shops during the day.
+However, the walls require a water supply to keep them green, otherwise, the plants will die creating bio and fire hazards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality has been approached to install some small, but densely populated fast growing forests.
 The tennis court sized forests can be planted almost anywhere, given their size, and provide the benefits of a forest right in the heart of the town, creating urban spaces that help mitigate the impacts of heat stress and connect people with nature.
 However, the desire for fast growing forests can lead to the selection of tree species that are susceptible to disease and pests.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The project is a disaster! Whilst the course was constructed with no issues, running the resort requires a vast amount of water, with the water company suggesting that people only shower once a week to save water. </t>
-  </si>
-  <si>
-    <t>It’s been a couple of years since you left education and have been finding your feet in the adult world of employment and responsibilities.
-You like having a stable job with a decent wage and room to grow,​ having nice things to do when you're not at work,  being able to get on, buy a nice flat with your partner and start putting down some roots.​
-You hate​ the lack of work opportunities, you want to get on and build a career. You're struggling to make ends meet and  you seem to pay a lot of tax but not see much for it, given the state of the local environment, every thing looks tired and needs a good clean up.​</t>
-  </si>
-  <si>
-    <t>You’re a young parent with some rug rats. Life has new levels of complexity and you’re still trying to find your feet.​
-You like things you can do for and with your family, knowing that your kids have a future in the town​, and being able to unwind with your partner at the end of the day.​
-You hate people and policies that hate people with children​,  excessive government intervention​, and pollution that may impact your family.</t>
-  </si>
-  <si>
-    <t>You are a retired worker. You’ve spent your lifetime working hard and, at your age, you are entitled to everything you deserve.​
-You like activities that meet your needs as an active member of society,  opportunities to shop, socialize and be entertained, and easy transport links so you can get around without any stress​
-You hate change that adversely impacts you.​ Young people whinging about having it tough as you had it tough when you were young, and it didn’t affect you much.​ Taxation as you’ve paid tax all your life and should be done with it now.​</t>
-  </si>
-  <si>
-    <t>You are a local business owner. You’ve managed your shop for years. It keeps you busy enough and financially secure, but not wealthy.​
-You like nice customers that make good purchases​, tourists and holidaymakers that are keen to buy at your shop, and being apart of the local community​
-You hate the mall and out of town shopping taking away customers,​ high parking charges stopping people coming to town.​ The municipality needlessly changing things, you like things the way they are and want to keep them that way.</t>
-  </si>
-  <si>
-    <t>You are a local politician who got into politics to address injustice both locally and in the wider community.
-You like being a force for good in the local community, being an agent of change, even if the change is often what people need rather than want, and keeping big businesses and the powerful in check.
-You hate people and organisations that don't understand that we are just tenants, not the long term owners of the town. Carpet baggers trying to make a short term profit on the backs of hard working people.</t>
-  </si>
-  <si>
-    <t>You're a student, living and studying in the town. The local college is great, but you really like all the outdoor amenities in the town.
-You like the idea of having money and freedom but are unsure how to get it.​ Getting outdoors and doing nice things with your friends and fam. Not having to work that much at the moment.
-You hate older people telling you what to do and where to go, were they ever young? The state of the environment, everything seems to be messed up and getting worse.  You worry deeply about your future and the state of the world.</t>
-  </si>
-  <si>
-    <t>A large local employer closes down. All of a sudden, many people are out of work and companies that rely on the closed company have a reduction in their turnover.</t>
-  </si>
-  <si>
-    <t>There appears to be little impact of the economic event in the town, which is a huge relief for the local businesses and towns people.
-However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
-  </si>
-  <si>
-    <t>There appears to be little impact of the flood in the town, which is a huge relief for the local businesses and towns people.
-However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
-  </si>
-  <si>
-    <t>There appears to be little impact of the drought  in the town, which is a huge relief for the local businesses and towns people.
-However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
-  </si>
-  <si>
-    <t>The town appears to be in a climate change where it's just so hot all the time, resulting in the town becoming drier and browner.
-Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
-  </si>
-  <si>
-    <t>There appears to be little impact of the event in the town, which is a huge relief for all.
-However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
-  </si>
-  <si>
-    <t>There appears to be little impact of the event in the town, which is a huge relief for the local businesses and towns people.
-However, the impact is so small people wonder if the municipality has over prepared for such events and whether the town will be able to overcome over events with such ease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The town normally has great summers, but this summer was a lot hotter than normal, making it hard to enjoy the weather as it was just too hot. </t>
-  </si>
-  <si>
-    <t>A local diary farm has a storage failure, releasing milk into the local river, killing all the fish. Whilst the leak is repaired quickly and the dead fish removed, it takes considerable time for the river to return to pristine condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood events occur when there is water in places where water shouldn't be, and can occur from excessive rainfall, storm surges, or man-made flooding. Flooding causes damage in two main ways, firstly from water damage and then secondly from the debris and waste left by receding water
- </t>
-  </si>
-  <si>
-    <t>It's been raining more than expected for the time of year and the ground has become sodden, resulting in localised flooding. This impacts local people and businesses and takes resources to clean up once the flood water recedes.</t>
-  </si>
-  <si>
-    <t>The town has a drier winter than expected, resulting in the main supply reservoirs being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
-  </si>
-  <si>
-    <t>The town appears to be in a climate change where it no longer rains like it used to, resulting in the town becoming drier and browner, and making water a scares resource.
-Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversity events occur when the fauna and or flora of an environment is threatened by external sources. Typically, this may occur as a side effect of industrial pollution, or the introduction of non indigenous flora and fauna. </t>
-  </si>
-  <si>
-    <t>For the last year or so the town has been experiencing lower rainfall than typical. It was hoped that last year's low rainfall was a blip, but it's being repeated this year.
-Residents and businesses are starting to get nervous about the future.</t>
-  </si>
-  <si>
-    <t>The town's hot summer has now extended into a hot autumn and a hot winter. Whilst tourists are enjoying the winter sun, residents have had their fill.
-Residents and businesses are starting to get nervous about the future.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their economic resilience planning.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to flooding. As the town floods, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their flood resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the event, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their actions.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the heat wave,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their actions.</t>
-  </si>
-  <si>
-    <t>The town has been clearly impacted by the drought, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their drought planning.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the drought,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their drought planning.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the flood, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their flood planning.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the flood,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their flood planning.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the event, with much work to do to recover the town's fauna and flora, and the people and businesses that are involved.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their biodiversity resilience.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the town's fauna and flora and the people and businesses that are involved.
-People feel that the municipality has 'got it right' with their  biodiversity resilience.</t>
-  </si>
-  <si>
-    <t>The town has been battered by multiple winter storms, with each storm causing flooding that the town is struggling to recover from before being hit by the next one.
-Residents and businesses are starting to get nervous about the future.</t>
-  </si>
-  <si>
-    <t>A local farm uses a pesticide that destroys the local bee population. Without bees, local crops and plants are not pollinated, resulting in a commercial and environmental collapse.
-Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
-  </si>
-  <si>
-    <t>An oil tanker runs aground up the coast, spilling a million barrels of oil, wiping out much of the bird life and destroying the local beach tourism industry for a couple of seasons.
-Residents and businesses are starting to get nervous about the future.</t>
-  </si>
-  <si>
-    <t>Bad weather impacts the summer holiday season. This results in many local businesses being impacted by a downturn in their trade.
-Some businesses will be able to 'weather the storm', but for smaller businesses that rely on the summer season, a washout will mean the end of their business.</t>
-  </si>
-  <si>
-    <t>A global credit crunch, economic decisions in a country far, far, away impact the town's economy by removing money from the economy. This results in some international companies closing their operations in the town, increased costs for goods and services and a reluctance by people to spend their limited cash.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to fluctuations in its water supply. As the town's water reserves dwindle, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their drought planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>Economic events occur when there is a loss of confidence in the economy. This can be seen as a reduction in investment, leading company closures,  job losses, and a general reduction in consumer spending . 
-Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
-  </si>
-  <si>
-    <t>The region has been absolutely battered by a once in a lifetime storm that has dumped unprecedented amounts of rain in the region, causing huge amount of damage. Rebuilding will take time and effort.
-Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
-  </si>
-  <si>
-    <t>Drought events occur when provisions for water consumption are not met. Typically, this can be a lack of rain, either locally or remotely, as a lack of rain in to the ground water and rivers that feed the town. Droughts can be short term, as a lack of rainfall, or longer term in the retreat of water bodies.</t>
-  </si>
-  <si>
-    <t>Heat waves occur when there is a prolonged period of local excess heat as a sequence of unusually hot days and nights. Heat waves amplify many risks, such as health related or economic risks, including increased human mortality, drought and water quality, wildfire and smoke, power shortages and agricultural losses.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>firebreaks.jpeg</t>
-  </si>
-  <si>
-    <t>water_delivery_service.jpg</t>
-  </si>
-  <si>
-    <t>protect_biodiversity.jpg</t>
-  </si>
-  <si>
-    <t>Approve sea wall construction</t>
-  </si>
-  <si>
-    <t>miyawaki.jpg</t>
-  </si>
-  <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through drought event.
-Research has shown that people are more stressed about the idea of being in a drought, rather than actually experiencing a drought. A website that provides support and information will help residents to become more knowledgeable.</t>
-  </si>
-  <si>
-    <t>Municipality will develop a drought modelling digital twin to evaluate the likelihood and impact of potential drought events, to better prepare for droughts and long-term planning for drought resilience.
+    <t>The municipality is looking to make the most of its annual heatwave and brand the town for 'extreme heat tourism', to attract northern European tourists looking for hot holiday action. 
+This should create a tourist boom and help the local economy by creating jobs to service tourist needs. However, supporting tourists may adversely affect the town by choosing developments that meet tourist, rather than local needs.</t>
+  </si>
+  <si>
+    <t>The municipality will develop a heat wave modelling digital twin to evaluate the likelihood and impact of potential heat waves, to better prepare for heat waves and long-term planning for heat resilience.
 The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
   </si>
   <si>
-    <t>Municipality will develop a heat wave modelling digital twin to evaluate the likelihood and impact of potential heat waves, to better prepare for heat waves and long-term planning for heat resilience.
-The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
-  </si>
-  <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them support biodiverrsity.
-Research has shown that people often make poor biodiversity decisions due to a lack of knowledge and suitable support. A website that provides support and information will help residents to become more knowledgeable.</t>
-  </si>
-  <si>
-    <t>The project is delivered and residents are aware and using the website. After an expected biodiversity event, many residents cite the website as being a great resource for helping them to come to terms with  issues.</t>
-  </si>
-  <si>
-    <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate drought data and models, resulting in a useless tool.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
-    <t>The digital twin works well and is providing some good insights, not least a model for forecasting water scarcity. The municipality is happy and would like to develop it further.</t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing conservative water consumption activities to be far better targeted. Most residents don't notice, but the impact of droughts is decreasing year by year.</t>
-  </si>
-  <si>
-    <t>student2.jpg</t>
+    <t xml:space="preserve">The municipality has been approached by local university to host a beaver land management project to reduce river flooding.
+The proposal is positively regarded as it positions the municipality as being forward looking by adopting nature-based solutions and the trial should be a low-cost activity.
+However, as a research project, it's unproven and may go horribly wrong. There's also the consideration that introducing beavers may adversely impact the local flora and fauna balance. </t>
+  </si>
+  <si>
+    <t>The municipality has been approached to develop a community website that will provide residents with useful information and support to help them support biodiversity.
+Research has shown that people often make poor environmental decisions due to a lack of knowledge and suitable support.  It is hoped that this website will provide support and information enabling residents to become more knowledgeable and make better decisions.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached to develop a community website that will provide residents with useful information and support to help them through drought event.
+Research has shown that people often make poor water-saving decisions due to a lack of knowledge and suitable support.  It is hoped that this website will provide support and information enabling residents to become more knowledgeable and make better decisions.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached by a large local landowner to develop fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.
+The breaks should contain fires and stop them spreading so widely. This should reduce reliance on the emergency services and reduce biodiversity loss.
+However,  there are costs associated with installing and maintaining the breaks and the biodiversity impact of initially removing trees and scrubland.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached to develop a community website that will provide residents with useful information and support to help them through heat waves and extreme heat.
+Research has shown that people often suffer during heat waves due to a lack of knowledge and suitable support.  It is hoped that this website will provide support and information enabling residents to become more knowledgeable and make better decisions.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached to develop flood plain management for the local river, removing existing developments and allowing land to flood and store flood water. This should reduce flooding and  provide better management of the flood plans, allowing for new recreational activities and attracting wildlife.​
+However, the flood plains will not completely stop flooding, which is likely to cause issues with stakeholders if not communicated properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality is looking to ship in bottled water from another country in order to reduce problems with drinking water supply during drought conditions.
+This will give the town a dependable supply of drinking water during the summer and it's much cheaper than updating the towns water collection and distribution network. 
+However, the constant deliveries of bottled water will create traffic congestion. There's also the public relations issue that the municipality isn't prepared to solve its hard problems and just buys in solutions. </t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1448,10 +1447,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1470,7 +1469,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -1481,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>27</v>
@@ -1492,7 +1491,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1503,7 +1502,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>31</v>
@@ -1599,7 +1598,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>50</v>
@@ -1611,28 +1610,28 @@
         <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1646,7 +1645,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>50</v>
@@ -1658,28 +1657,28 @@
         <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1693,7 +1692,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>50</v>
@@ -1705,28 +1704,28 @@
         <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1740,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>50</v>
@@ -1752,28 +1751,28 @@
         <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1787,7 +1786,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>50</v>
@@ -1799,28 +1798,28 @@
         <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1872,11 +1871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1946,11 +1945,11 @@
         <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="12">
         <v>-1</v>
@@ -1988,7 +1987,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1998,7 +1997,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12">
         <v>-1</v>
@@ -2007,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>81</v>
@@ -2027,19 +2026,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -2051,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>82</v>
@@ -2071,19 +2070,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -2095,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2115,16 +2114,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
         <v>2</v>
@@ -2139,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>84</v>
@@ -2159,19 +2158,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -2183,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>82</v>
@@ -2206,14 +2205,14 @@
         <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -2225,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>83</v>
@@ -2248,7 +2247,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2258,25 +2257,25 @@
         <v>-1</v>
       </c>
       <c r="G9" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>86</v>
@@ -2290,7 +2289,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2309,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>85</v>
@@ -2332,7 +2331,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2345,25 +2344,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2374,7 +2373,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2387,22 +2386,22 @@
         <v>0</v>
       </c>
       <c r="H12" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>89</v>
@@ -2416,7 +2415,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2435,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>90</v>
@@ -2458,14 +2457,14 @@
         <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12">
         <v>0</v>
@@ -2477,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>82</v>
@@ -2500,14 +2499,14 @@
         <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12">
         <v>0</v>
@@ -2519,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>83</v>
@@ -2539,20 +2538,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -2584,11 +2583,11 @@
         <v>67</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="12">
         <v>-1</v>
@@ -2626,20 +2625,20 @@
         <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
         <v>1</v>
       </c>
       <c r="F18" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G18" s="12">
         <v>2</v>
       </c>
       <c r="H18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -2668,7 +2667,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2678,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="12">
         <v>0</v>
@@ -2690,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>101</v>
@@ -2702,7 +2701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -2710,17 +2709,17 @@
         <v>71</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
         <v>-1</v>
       </c>
       <c r="F20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="12">
         <v>0</v>
@@ -2732,7 +2731,7 @@
         <v>103</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>116</v>
@@ -2752,7 +2751,7 @@
         <v>118</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>117</v>
@@ -2761,7 +2760,7 @@
         <v>-1</v>
       </c>
       <c r="F21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12">
         <v>2</v>
@@ -2773,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>82</v>
@@ -2796,7 +2795,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>119</v>
@@ -2805,7 +2804,7 @@
         <v>-1</v>
       </c>
       <c r="F22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="12">
         <v>3</v>
@@ -2817,16 +2816,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>83</v>
@@ -2837,13 +2836,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2855,22 +2854,22 @@
         <v>0</v>
       </c>
       <c r="H23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="12">
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>105</v>
@@ -2884,7 +2883,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2896,25 +2895,25 @@
         <v>0</v>
       </c>
       <c r="H24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2922,13 +2921,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2940,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="H25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="12">
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>106</v>
@@ -2961,18 +2960,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2984,25 +2983,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="12">
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3013,10 +3012,10 @@
         <v>75</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="E27" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -3025,22 +3024,22 @@
         <v>0</v>
       </c>
       <c r="H27" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="12">
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>109</v>
@@ -3054,10 +3053,10 @@
         <v>73</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="E28" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -3066,28 +3065,28 @@
         <v>0</v>
       </c>
       <c r="H28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="12">
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>277</v>
       </c>
       <c r="E29" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -3107,22 +3106,22 @@
         <v>0</v>
       </c>
       <c r="H29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="12">
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>83</v>

--- a/proto-2/build/game_my_interventions.xlsx
+++ b/proto-2/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0BE4BC-B062-8B44-B855-E589CD537DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944D611-0E04-F848-94D8-BE14B7EA646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="3340" windowWidth="42300" windowHeight="22420" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="10960" yWindow="11060" windowWidth="42300" windowHeight="22420" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -383,10 +383,6 @@
     <t xml:space="preserve">Shortly after the project completes, the town is buffeted a number of huge storms, the worst in living memory. Unlike previous storms, the coast road district doesn’t flood saving the council by not having to perform a large clean-up. </t>
   </si>
   <si>
-    <t>The community around the coastal road has been plagued by frequent sea floods, from high tides and onshore winds. This causes a great deal of disruption and leaves the area with costly flood damage and debris to clean up.
-Building a sea wall will stop these flooding events. It will be a messy and disruptive construction process, but stopping the floods will help the area to stabilise and grow economically, even if it does ruin a good sea view.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project is a legal disaster area! Residents of nearby 'Cliff Heights' raise long and costly  objections as their district is being allowed to erode into the sea, resulting in the project being substantially delayed. </t>
   </si>
   <si>
@@ -633,10 +629,6 @@
 The town has a large market garden industry which often places great demand on the water distribution network, with farmers preferring to water more than less, even though over watering can adversely effect crops. Using computers to access crop need should lead to less water consumption and allow currently marginal land to be used.</t>
   </si>
   <si>
-    <t xml:space="preserve">The town’s seaside golf course is becoming submerged by global warming and high tides, with the municipality current spending a lot to protect it from nature.  Returning the course to the sea would allow the municipality to spend its limited budgets where they can have the biggest impact​, support the creation of a wildlife wetland​, and reduce motor traffic by that part of the shoreline.
-However, such an action is likely to anger the golfers that current use the course and may be seen by townspeople as the municipality abandoning parts of the town to nature​. </t>
-  </si>
-  <si>
     <t>The project appears to have been a success but key stakeholders seem unhappy with the outcomes and are currently blaming each other for any issues that arise.</t>
   </si>
   <si>
@@ -914,10 +906,6 @@
   <si>
     <t>The municipality will develop a drought modelling digital twin to evaluate the likelihood and impact of potential drought events, to better prepare for droughts and long-term planning for drought resilience.
 The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
-  </si>
-  <si>
-    <t>The municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
-The proposal is positive​ly regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
   </si>
   <si>
     <t>The municipality has been approached to develop a community website that will provide residents with useful information and support to help them through floods.
@@ -975,6 +963,19 @@
     <t xml:space="preserve">The municipality is looking to ship in bottled water from another country in order to reduce problems with drinking water supply during drought conditions.
 This will give the town a dependable supply of drinking water during the summer and it's much cheaper than updating the towns water collection and distribution network. 
 However, the constant deliveries of bottled water will create traffic congestion. There's also the public relations issue that the municipality isn't prepared to solve its hard problems and just buys in solutions. </t>
+  </si>
+  <si>
+    <t>The municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
+The proposal is positively regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
+  </si>
+  <si>
+    <t>The municipality has been approached by the Coastal Defence Authority to approve building a sea wall to protect the local community, as has been plagued by increaseingly frequent sea floods. These floods cause a great deal of disruption and leaves the area with costly clean up bills.
+The building process will be a messy and disruptive, but stopping the floods will help the area to stabilise and grow economically, even if it does ruin a good sea view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The municipality has been approached by the Coastal Defence Authority to approve the abandonment of the town’s often flooded low-lying seaside golf course. 
+The course would be returned to nature through the creation of a wildlife wetland​ and motor traffic would reduce by that part of the shoreline.
+However, such an action is likely to anger the golfers that currently play on the course and may be seen as the municipality abandoning parts of the town to nature​. </t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1448,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1469,7 +1470,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -1480,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>27</v>
@@ -1491,7 +1492,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1502,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>31</v>
@@ -1598,7 +1599,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>50</v>
@@ -1610,28 +1611,28 @@
         <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1645,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>50</v>
@@ -1657,28 +1658,28 @@
         <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1692,7 +1693,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>50</v>
@@ -1704,28 +1705,28 @@
         <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1739,7 +1740,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>50</v>
@@ -1751,28 +1752,28 @@
         <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1786,7 +1787,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>50</v>
@@ -1798,28 +1799,28 @@
         <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1873,10 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,7 +1946,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1987,7 +1988,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -2006,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>81</v>
@@ -2026,13 +2027,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2050,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>82</v>
@@ -2070,13 +2071,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2094,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2114,13 +2115,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12">
         <v>3</v>
@@ -2138,16 +2139,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>84</v>
@@ -2158,13 +2159,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -2182,16 +2183,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>82</v>
@@ -2205,7 +2206,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2224,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>83</v>
@@ -2247,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2266,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>86</v>
@@ -2289,7 +2290,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2308,16 +2309,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>85</v>
@@ -2331,7 +2332,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2350,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2373,7 +2374,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2392,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>89</v>
@@ -2415,7 +2416,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2434,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>90</v>
@@ -2457,7 +2458,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2476,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>82</v>
@@ -2499,7 +2500,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2518,30 +2519,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2560,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>110</v>
@@ -2583,7 +2584,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2605,7 +2606,7 @@
         <v>92</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>93</v>
@@ -2625,7 +2626,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2659,7 +2660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2689,7 +2690,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>101</v>
@@ -2709,7 +2710,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2731,13 +2732,13 @@
         <v>103</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>104</v>
@@ -2748,16 +2749,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12">
         <v>1</v>
@@ -2772,16 +2773,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>82</v>
@@ -2795,13 +2796,13 @@
         <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
         <v>1</v>
@@ -2816,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>83</v>
@@ -2836,13 +2837,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2860,16 +2861,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>105</v>
@@ -2883,7 +2884,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2901,19 +2902,19 @@
         <v>3</v>
       </c>
       <c r="J24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="N24" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2921,13 +2922,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2945,10 +2946,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>106</v>
@@ -2965,13 +2966,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2989,19 +2990,19 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="N26" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3012,7 +3013,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E27" s="12">
         <v>5</v>
@@ -3030,16 +3031,16 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="M27" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>109</v>
@@ -3053,7 +3054,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E28" s="12">
         <v>0</v>
@@ -3071,16 +3072,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>82</v>
@@ -3094,7 +3095,7 @@
         <v>74</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E29" s="12">
         <v>0</v>
@@ -3112,16 +3113,16 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>83</v>
@@ -3129,5 +3130,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>